--- a/สรุป Cost BOQ ตาม Activity ID RV.1.xlsx
+++ b/สรุป Cost BOQ ตาม Activity ID RV.1.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phd\Backup20200730\Journal\Revise2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanarutboonyung/Desktop/Works/OASYS/Scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D770786-80A9-4507-B883-E6BD8BAF519D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F961CBA0-B1C6-CF4B-9F95-0E35D06A026D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOQ Activity" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BOQ Activity'!$A$1:$J$253</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="532">
   <si>
     <t>ID</t>
   </si>
@@ -2020,12 +2032,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,6 +2046,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2322,29 +2334,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F261" sqref="F261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="21" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1"/>
+    <col min="11" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2389,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -2387,12 +2400,16 @@
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="23">
+        <v>0</v>
+      </c>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
@@ -2403,12 +2420,16 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
       <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="23">
+        <v>0</v>
+      </c>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
@@ -2425,12 +2446,16 @@
         <v>253</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
       <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
@@ -2447,12 +2472,16 @@
         <v>253</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
       <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
@@ -2463,12 +2492,16 @@
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="23">
+        <v>0</v>
+      </c>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
@@ -2485,12 +2518,16 @@
         <v>253</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
       <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
@@ -2507,12 +2544,16 @@
         <v>253</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>8</v>
       </c>
@@ -2529,12 +2570,16 @@
         <v>253</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
       <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
@@ -2551,12 +2596,16 @@
         <v>253</v>
       </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
       <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>10</v>
       </c>
@@ -2573,12 +2622,16 @@
         <v>253</v>
       </c>
       <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
       <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>11</v>
       </c>
@@ -2589,12 +2642,16 @@
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2611,12 +2668,16 @@
         <v>253</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -2633,12 +2694,16 @@
         <v>253</v>
       </c>
       <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
       <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
@@ -2655,12 +2720,16 @@
         <v>253</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
@@ -2677,12 +2746,16 @@
         <v>253</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
       <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
@@ -2699,12 +2772,16 @@
         <v>253</v>
       </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
       <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>17</v>
       </c>
@@ -2715,12 +2792,16 @@
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
       <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="23">
+        <v>0</v>
+      </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>18</v>
       </c>
@@ -2737,12 +2818,16 @@
         <v>253</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
       <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
@@ -2759,12 +2844,16 @@
         <v>253</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
       <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -2781,12 +2870,16 @@
         <v>253</v>
       </c>
       <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
       <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
@@ -2803,12 +2896,16 @@
         <v>253</v>
       </c>
       <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
       <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="26">
+        <v>0</v>
+      </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
         <v>22</v>
       </c>
@@ -2825,12 +2922,16 @@
         <v>253</v>
       </c>
       <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
       <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
         <v>23</v>
       </c>
@@ -2847,12 +2948,16 @@
         <v>253</v>
       </c>
       <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>24</v>
       </c>
@@ -2869,12 +2974,16 @@
         <v>253</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
       <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
@@ -2891,12 +3000,16 @@
         <v>253</v>
       </c>
       <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="I26" s="26">
+        <v>0</v>
+      </c>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>26</v>
       </c>
@@ -2913,12 +3026,16 @@
         <v>253</v>
       </c>
       <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="26">
+        <v>0</v>
+      </c>
       <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
@@ -2929,12 +3046,16 @@
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="23">
+        <v>0</v>
+      </c>
       <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="I28" s="23">
+        <v>0</v>
+      </c>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
         <v>28</v>
       </c>
@@ -2951,12 +3072,16 @@
         <v>253</v>
       </c>
       <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="26">
+        <v>0</v>
+      </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
         <v>29</v>
       </c>
@@ -2973,12 +3098,16 @@
         <v>253</v>
       </c>
       <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
       <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="I30" s="26">
+        <v>0</v>
+      </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
         <v>30</v>
       </c>
@@ -2995,12 +3124,16 @@
         <v>253</v>
       </c>
       <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="26">
+        <v>0</v>
+      </c>
       <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
+      <c r="I31" s="26">
+        <v>0</v>
+      </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>31</v>
       </c>
@@ -3017,12 +3150,16 @@
         <v>253</v>
       </c>
       <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
       <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
+      <c r="I32" s="26">
+        <v>0</v>
+      </c>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
         <v>32</v>
       </c>
@@ -3039,12 +3176,16 @@
         <v>253</v>
       </c>
       <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>33</v>
       </c>
@@ -3061,12 +3202,16 @@
         <v>253</v>
       </c>
       <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="G34" s="26">
+        <v>0</v>
+      </c>
       <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
+      <c r="I34" s="26">
+        <v>0</v>
+      </c>
       <c r="J34" s="27"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
         <v>34</v>
       </c>
@@ -3083,12 +3228,16 @@
         <v>253</v>
       </c>
       <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="26">
+        <v>0</v>
+      </c>
       <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="26">
+        <v>0</v>
+      </c>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
         <v>35</v>
       </c>
@@ -3099,12 +3248,16 @@
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
       <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
+      <c r="I36" s="23">
+        <v>0</v>
+      </c>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>36</v>
       </c>
@@ -3131,13 +3284,14 @@
         <v>140513</v>
       </c>
       <c r="I37" s="29">
+        <f>H37/C37</f>
         <v>4683.7666666666664</v>
       </c>
       <c r="J37" s="30">
         <v>390.31388888888887</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
         <v>37</v>
       </c>
@@ -3148,12 +3302,16 @@
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="23">
+        <v>0</v>
+      </c>
       <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="s">
         <v>38</v>
       </c>
@@ -3180,13 +3338,14 @@
         <v>293515</v>
       </c>
       <c r="I39" s="29">
+        <f t="shared" ref="I39:I44" si="0">H39/C39</f>
         <v>9783.8333333333339</v>
       </c>
       <c r="J39" s="30">
         <v>3261.2777777777778</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="s">
         <v>39</v>
       </c>
@@ -3206,20 +3365,21 @@
         <v>760861</v>
       </c>
       <c r="G40" s="29">
-        <f t="shared" ref="G40:G101" si="0">F40/C40</f>
+        <f t="shared" ref="G40:G101" si="1">F40/C40</f>
         <v>12681.016666666666</v>
       </c>
       <c r="H40" s="28">
         <v>139900</v>
       </c>
       <c r="I40" s="29">
+        <f t="shared" si="0"/>
         <v>2331.6666666666665</v>
       </c>
       <c r="J40" s="30">
         <v>1165.8333333333333</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
         <v>40</v>
       </c>
@@ -3239,20 +3399,21 @@
         <v>133591</v>
       </c>
       <c r="G41" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4453.0333333333338</v>
       </c>
       <c r="H41" s="28">
         <v>89938</v>
       </c>
       <c r="I41" s="29">
+        <f t="shared" si="0"/>
         <v>2997.9333333333334</v>
       </c>
       <c r="J41" s="30">
         <v>1498.9666666666667</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
         <v>41</v>
       </c>
@@ -3272,20 +3433,21 @@
         <v>240500</v>
       </c>
       <c r="G42" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8016.666666666667</v>
       </c>
       <c r="H42" s="28">
         <v>3150</v>
       </c>
       <c r="I42" s="29">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="J42" s="30">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="37" t="s">
         <v>42</v>
       </c>
@@ -3305,20 +3467,21 @@
         <v>8470</v>
       </c>
       <c r="G43" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>282.33333333333331</v>
       </c>
       <c r="H43" s="28">
         <v>3850</v>
       </c>
       <c r="I43" s="29">
+        <f t="shared" si="0"/>
         <v>128.33333333333334</v>
       </c>
       <c r="J43" s="30">
         <v>128.33333333333334</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
         <v>43</v>
       </c>
@@ -3338,20 +3501,21 @@
         <v>111300</v>
       </c>
       <c r="G44" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3710</v>
       </c>
       <c r="H44" s="28">
         <v>66780</v>
       </c>
       <c r="I44" s="29">
+        <f t="shared" si="0"/>
         <v>2226</v>
       </c>
       <c r="J44" s="30">
         <v>742</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
         <v>44</v>
       </c>
@@ -3362,12 +3526,16 @@
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="G45" s="23">
+        <v>0</v>
+      </c>
       <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
+      <c r="I45" s="23">
+        <v>0</v>
+      </c>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
         <v>45</v>
       </c>
@@ -3395,8 +3563,8 @@
         <f>43420/3</f>
         <v>14473.333333333334</v>
       </c>
-      <c r="I46" s="32">
-        <f>H46/C46</f>
+      <c r="I46" s="29">
+        <f t="shared" ref="I46:I48" si="2">H46/C46</f>
         <v>964.88888888888891</v>
       </c>
       <c r="J46" s="33">
@@ -3404,7 +3572,7 @@
         <v>482.44444444444446</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>46</v>
       </c>
@@ -3425,23 +3593,23 @@
         <v>198086.83333333334</v>
       </c>
       <c r="G47" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13205.78888888889</v>
       </c>
       <c r="H47" s="31">
         <f>43420/3</f>
         <v>14473.333333333334</v>
       </c>
-      <c r="I47" s="32">
-        <f>2894.66666666667/3</f>
-        <v>964.88888888889005</v>
+      <c r="I47" s="29">
+        <f t="shared" si="2"/>
+        <v>964.88888888888891</v>
       </c>
       <c r="J47" s="33">
-        <f t="shared" ref="J47:J48" si="1">I47/D47</f>
-        <v>482.44444444444503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J47:J48" si="3">I47/D47</f>
+        <v>482.44444444444446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
         <v>47</v>
       </c>
@@ -3462,23 +3630,23 @@
         <v>198086.83333333334</v>
       </c>
       <c r="G48" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13205.78888888889</v>
       </c>
       <c r="H48" s="31">
         <f>43420/3</f>
         <v>14473.333333333334</v>
       </c>
-      <c r="I48" s="32">
-        <f>2894.66666666667/3</f>
-        <v>964.88888888889005</v>
+      <c r="I48" s="29">
+        <f t="shared" si="2"/>
+        <v>964.88888888888891</v>
       </c>
       <c r="J48" s="33">
-        <f t="shared" si="1"/>
-        <v>482.44444444444503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>482.44444444444446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
         <v>48</v>
       </c>
@@ -3489,12 +3657,16 @@
       <c r="D49" s="39"/>
       <c r="E49" s="39"/>
       <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="G49" s="23">
+        <v>0</v>
+      </c>
       <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
+      <c r="I49" s="23">
+        <v>0</v>
+      </c>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
         <v>49</v>
       </c>
@@ -3505,12 +3677,16 @@
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
       <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
+      <c r="I50" s="23">
+        <v>0</v>
+      </c>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
         <v>50</v>
       </c>
@@ -3538,8 +3714,8 @@
         <f>14610/3</f>
         <v>4870</v>
       </c>
-      <c r="I51" s="32">
-        <f>H51/C51</f>
+      <c r="I51" s="29">
+        <f t="shared" ref="I51:I53" si="4">H51/C51</f>
         <v>38.650793650793652</v>
       </c>
       <c r="J51" s="33">
@@ -3547,7 +3723,7 @@
         <v>38.650793650793652</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
         <v>51</v>
       </c>
@@ -3568,23 +3744,23 @@
         <v>19785.666666666668</v>
       </c>
       <c r="G52" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157.02910052910053</v>
       </c>
       <c r="H52" s="31">
         <f>14610/3</f>
         <v>4870</v>
       </c>
-      <c r="I52" s="32">
-        <f>H52/C52</f>
+      <c r="I52" s="29">
+        <f t="shared" si="4"/>
         <v>38.650793650793652</v>
       </c>
       <c r="J52" s="33">
-        <f t="shared" ref="J52:J53" si="2">I52/D52</f>
+        <f t="shared" ref="J52:J53" si="5">I52/D52</f>
         <v>38.650793650793652</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="37" t="s">
         <v>52</v>
       </c>
@@ -3605,23 +3781,23 @@
         <v>19785.666666666668</v>
       </c>
       <c r="G53" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>157.02910052910053</v>
       </c>
       <c r="H53" s="31">
         <f>14610/3</f>
         <v>4870</v>
       </c>
-      <c r="I53" s="32">
-        <f>H53/C53</f>
+      <c r="I53" s="29">
+        <f t="shared" si="4"/>
         <v>38.650793650793652</v>
       </c>
       <c r="J53" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38.650793650793652</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37" t="s">
         <v>53</v>
       </c>
@@ -3632,12 +3808,16 @@
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
       <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
+      <c r="I54" s="23">
+        <v>0</v>
+      </c>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="37" t="s">
         <v>54</v>
       </c>
@@ -3658,23 +3838,23 @@
         <v>21587.666666666668</v>
       </c>
       <c r="G55" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>171.33068783068785</v>
       </c>
       <c r="H55" s="31">
         <f>30265/3</f>
         <v>10088.333333333334</v>
       </c>
-      <c r="I55" s="32">
-        <f t="shared" ref="I55:I57" si="3">H55/C55</f>
+      <c r="I55" s="29">
+        <f t="shared" ref="I55:I57" si="6">H55/C55</f>
         <v>80.06613756613757</v>
       </c>
       <c r="J55" s="33">
-        <f t="shared" ref="J55:J57" si="4">I55/D55</f>
+        <f t="shared" ref="J55:J57" si="7">I55/D55</f>
         <v>80.06613756613757</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="37" t="s">
         <v>55</v>
       </c>
@@ -3695,23 +3875,23 @@
         <v>21587.666666666668</v>
       </c>
       <c r="G56" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>171.33068783068785</v>
       </c>
       <c r="H56" s="31">
         <f>30265/3</f>
         <v>10088.333333333334</v>
       </c>
-      <c r="I56" s="32">
-        <f t="shared" si="3"/>
+      <c r="I56" s="29">
+        <f t="shared" si="6"/>
         <v>80.06613756613757</v>
       </c>
       <c r="J56" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80.06613756613757</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="37" t="s">
         <v>56</v>
       </c>
@@ -3732,23 +3912,23 @@
         <v>21587.666666666668</v>
       </c>
       <c r="G57" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>171.33068783068785</v>
       </c>
       <c r="H57" s="31">
         <f>30265/3</f>
         <v>10088.333333333334</v>
       </c>
-      <c r="I57" s="32">
-        <f t="shared" si="3"/>
+      <c r="I57" s="29">
+        <f t="shared" si="6"/>
         <v>80.06613756613757</v>
       </c>
       <c r="J57" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80.06613756613757</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="37" t="s">
         <v>57</v>
       </c>
@@ -3759,12 +3939,16 @@
       <c r="D58" s="39"/>
       <c r="E58" s="39"/>
       <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+      <c r="G58" s="23">
+        <v>0</v>
+      </c>
       <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
+      <c r="I58" s="23">
+        <v>0</v>
+      </c>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="37" t="s">
         <v>58</v>
       </c>
@@ -3784,20 +3968,21 @@
         <v>564390</v>
       </c>
       <c r="G59" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18813</v>
       </c>
       <c r="H59" s="28">
         <v>38260</v>
       </c>
       <c r="I59" s="29">
-        <v>637.66666666666663</v>
+        <f t="shared" ref="I59:I63" si="8">H59/C59</f>
+        <v>1275.3333333333333</v>
       </c>
       <c r="J59" s="30">
         <v>212.55555555555554</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="37" t="s">
         <v>59</v>
       </c>
@@ -3817,20 +4002,21 @@
         <v>231260</v>
       </c>
       <c r="G60" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7708.666666666667</v>
       </c>
       <c r="H60" s="28">
         <v>32100</v>
       </c>
       <c r="I60" s="29">
-        <v>535</v>
+        <f t="shared" si="8"/>
+        <v>1070</v>
       </c>
       <c r="J60" s="30">
         <v>535</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="37" t="s">
         <v>60</v>
       </c>
@@ -3850,20 +4036,21 @@
         <v>76804</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>960.05</v>
       </c>
       <c r="H61" s="28">
         <v>68344</v>
       </c>
       <c r="I61" s="29">
+        <f t="shared" si="8"/>
         <v>854.3</v>
       </c>
       <c r="J61" s="30">
         <v>854.3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="37" t="s">
         <v>61</v>
       </c>
@@ -3883,20 +4070,21 @@
         <v>81600</v>
       </c>
       <c r="G62" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1020</v>
       </c>
       <c r="H62" s="28">
         <v>62944</v>
       </c>
       <c r="I62" s="29">
+        <f t="shared" si="8"/>
         <v>786.8</v>
       </c>
       <c r="J62" s="30">
         <v>393.4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="37" t="s">
         <v>62</v>
       </c>
@@ -3916,20 +4104,21 @@
         <v>24000</v>
       </c>
       <c r="G63" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H63" s="28">
         <v>15000</v>
       </c>
       <c r="I63" s="29">
+        <f t="shared" si="8"/>
         <v>187.5</v>
       </c>
       <c r="J63" s="30">
         <v>187.5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="37" t="s">
         <v>63</v>
       </c>
@@ -3949,7 +4138,7 @@
         <v>1701350</v>
       </c>
       <c r="G64" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10311.212121212122</v>
       </c>
       <c r="H64" s="28">
@@ -3962,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="37" t="s">
         <v>64</v>
       </c>
@@ -3973,12 +4162,16 @@
       <c r="D65" s="39"/>
       <c r="E65" s="39"/>
       <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+      <c r="G65" s="23">
+        <v>0</v>
+      </c>
       <c r="H65" s="22"/>
-      <c r="I65" s="23"/>
+      <c r="I65" s="23">
+        <v>0</v>
+      </c>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="37" t="s">
         <v>65</v>
       </c>
@@ -3998,20 +4191,21 @@
         <v>0</v>
       </c>
       <c r="G66" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H66" s="28">
         <v>161888</v>
       </c>
       <c r="I66" s="29">
+        <f>H66/C66</f>
         <v>5396.2666666666664</v>
       </c>
       <c r="J66" s="30">
         <v>385.44761904761901</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="37" t="s">
         <v>66</v>
       </c>
@@ -4022,12 +4216,16 @@
       <c r="D67" s="39"/>
       <c r="E67" s="39"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+      <c r="G67" s="23">
+        <v>0</v>
+      </c>
       <c r="H67" s="22"/>
-      <c r="I67" s="23"/>
+      <c r="I67" s="23">
+        <v>0</v>
+      </c>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="37" t="s">
         <v>67</v>
       </c>
@@ -4047,20 +4245,21 @@
         <v>1787531</v>
       </c>
       <c r="G68" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59584.366666666669</v>
       </c>
       <c r="H68" s="28">
         <v>417945</v>
       </c>
       <c r="I68" s="29">
+        <f t="shared" ref="I68:I73" si="9">H68/C68</f>
         <v>13931.5</v>
       </c>
       <c r="J68" s="30">
         <v>1547.9444444444443</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="37" t="s">
         <v>68</v>
       </c>
@@ -4080,20 +4279,21 @@
         <v>1561419</v>
       </c>
       <c r="G69" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26023.65</v>
       </c>
       <c r="H69" s="28">
         <v>276080</v>
       </c>
       <c r="I69" s="29">
+        <f t="shared" si="9"/>
         <v>4601.333333333333</v>
       </c>
       <c r="J69" s="30">
         <v>1533.7777777777776</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="37" t="s">
         <v>69</v>
       </c>
@@ -4113,20 +4313,21 @@
         <v>172822</v>
       </c>
       <c r="G70" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5760.7333333333336</v>
       </c>
       <c r="H70" s="28">
         <v>105669</v>
       </c>
       <c r="I70" s="29">
+        <f t="shared" si="9"/>
         <v>3522.3</v>
       </c>
       <c r="J70" s="30">
         <v>1174.1000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="37" t="s">
         <v>70</v>
       </c>
@@ -4146,20 +4347,21 @@
         <v>571000</v>
       </c>
       <c r="G71" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19033.333333333332</v>
       </c>
       <c r="H71" s="28">
         <v>3600</v>
       </c>
       <c r="I71" s="29">
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="J71" s="30">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="37" t="s">
         <v>71</v>
       </c>
@@ -4179,20 +4381,21 @@
         <v>20660</v>
       </c>
       <c r="G72" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>688.66666666666663</v>
       </c>
       <c r="H72" s="28">
         <v>11800</v>
       </c>
       <c r="I72" s="29">
+        <f t="shared" si="9"/>
         <v>393.33333333333331</v>
       </c>
       <c r="J72" s="30">
         <v>393.33333333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="37" t="s">
         <v>72</v>
       </c>
@@ -4212,20 +4415,21 @@
         <v>149150</v>
       </c>
       <c r="G73" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4971.666666666667</v>
       </c>
       <c r="H73" s="28">
         <v>89490</v>
       </c>
       <c r="I73" s="29">
+        <f t="shared" si="9"/>
         <v>2983</v>
       </c>
       <c r="J73" s="30">
         <v>745.75</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="37" t="s">
         <v>73</v>
       </c>
@@ -4236,12 +4440,16 @@
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="G74" s="23">
+        <v>0</v>
+      </c>
       <c r="H74" s="22"/>
-      <c r="I74" s="23"/>
+      <c r="I74" s="23">
+        <v>0</v>
+      </c>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="37" t="s">
         <v>74</v>
       </c>
@@ -4270,15 +4478,15 @@
         <v>14473.333333333334</v>
       </c>
       <c r="I75" s="29">
-        <f>2894.66666666667/3</f>
-        <v>964.88888888889005</v>
+        <f t="shared" ref="I75:I77" si="10">H75/C75</f>
+        <v>964.88888888888891</v>
       </c>
       <c r="J75" s="30">
         <f>I75/D75</f>
-        <v>482.44444444444503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>482.44444444444446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="37" t="s">
         <v>75</v>
       </c>
@@ -4299,7 +4507,7 @@
         <v>199036.83333333334</v>
       </c>
       <c r="G76" s="29">
-        <f t="shared" ref="G76:G77" si="5">F76/C76</f>
+        <f t="shared" ref="G76:G77" si="11">F76/C76</f>
         <v>13269.122222222222</v>
       </c>
       <c r="H76" s="28">
@@ -4307,15 +4515,15 @@
         <v>14473.333333333334</v>
       </c>
       <c r="I76" s="29">
-        <f>2894.66666666667/3</f>
-        <v>964.88888888889005</v>
+        <f t="shared" si="10"/>
+        <v>964.88888888888891</v>
       </c>
       <c r="J76" s="30">
-        <f t="shared" ref="J76:J77" si="6">I76/D76</f>
-        <v>482.44444444444503</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J76:J77" si="12">I76/D76</f>
+        <v>482.44444444444446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="37" t="s">
         <v>76</v>
       </c>
@@ -4336,7 +4544,7 @@
         <v>199036.83333333334</v>
       </c>
       <c r="G77" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13269.122222222222</v>
       </c>
       <c r="H77" s="28">
@@ -4344,15 +4552,15 @@
         <v>14473.333333333334</v>
       </c>
       <c r="I77" s="29">
-        <f>2894.66666666667/3</f>
-        <v>964.88888888889005</v>
+        <f t="shared" si="10"/>
+        <v>964.88888888888891</v>
       </c>
       <c r="J77" s="30">
-        <f t="shared" si="6"/>
-        <v>482.44444444444503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>482.44444444444446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
         <v>77</v>
       </c>
@@ -4363,12 +4571,16 @@
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+      <c r="G78" s="23">
+        <v>0</v>
+      </c>
       <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="I78" s="23">
+        <v>0</v>
+      </c>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="37" t="s">
         <v>78</v>
       </c>
@@ -4379,12 +4591,16 @@
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+      <c r="G79" s="23">
+        <v>0</v>
+      </c>
       <c r="H79" s="22"/>
-      <c r="I79" s="23"/>
+      <c r="I79" s="23">
+        <v>0</v>
+      </c>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
         <v>79</v>
       </c>
@@ -4405,15 +4621,15 @@
         <v>16852.333333333332</v>
       </c>
       <c r="G80" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133.74867724867724</v>
       </c>
       <c r="H80" s="31">
         <f>14090/3</f>
         <v>4696.666666666667</v>
       </c>
-      <c r="I80" s="32">
-        <f>H80/C80</f>
+      <c r="I80" s="29">
+        <f t="shared" ref="I80:I82" si="13">H80/C80</f>
         <v>37.275132275132279</v>
       </c>
       <c r="J80" s="33">
@@ -4421,7 +4637,7 @@
         <v>37.2751322751323</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
         <v>80</v>
       </c>
@@ -4442,23 +4658,23 @@
         <v>16852.333333333332</v>
       </c>
       <c r="G81" s="32">
-        <f t="shared" ref="G81:G82" si="7">F81/C81</f>
+        <f t="shared" ref="G81:G82" si="14">F81/C81</f>
         <v>133.74867724867724</v>
       </c>
       <c r="H81" s="31">
-        <f t="shared" ref="H81:H82" si="8">14090/3</f>
+        <f t="shared" ref="H81:H82" si="15">14090/3</f>
         <v>4696.666666666667</v>
       </c>
-      <c r="I81" s="32">
-        <f t="shared" ref="I81:I82" si="9">H81/C81</f>
+      <c r="I81" s="29">
+        <f t="shared" si="13"/>
         <v>37.275132275132279</v>
       </c>
       <c r="J81" s="33">
-        <f t="shared" ref="J81:J82" si="10">37.2751322751323</f>
+        <f t="shared" ref="J81:J82" si="16">37.2751322751323</f>
         <v>37.2751322751323</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
         <v>81</v>
       </c>
@@ -4479,23 +4695,23 @@
         <v>16852.333333333332</v>
       </c>
       <c r="G82" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>133.74867724867724</v>
       </c>
       <c r="H82" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4696.666666666667</v>
       </c>
-      <c r="I82" s="32">
-        <f t="shared" si="9"/>
+      <c r="I82" s="29">
+        <f t="shared" si="13"/>
         <v>37.275132275132279</v>
       </c>
       <c r="J82" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>37.2751322751323</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
         <v>82</v>
       </c>
@@ -4506,12 +4722,16 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+      <c r="G83" s="23">
+        <v>0</v>
+      </c>
       <c r="H83" s="22"/>
-      <c r="I83" s="23"/>
+      <c r="I83" s="23">
+        <v>0</v>
+      </c>
       <c r="J83" s="24"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
         <v>83</v>
       </c>
@@ -4532,13 +4752,14 @@
         <v>20121</v>
       </c>
       <c r="G84" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>159.6904761904762</v>
       </c>
       <c r="H84" s="28">
         <v>29465</v>
       </c>
       <c r="I84" s="29">
+        <f t="shared" ref="I84:I86" si="17">H84/C84</f>
         <v>233.84920634920636</v>
       </c>
       <c r="J84" s="30">
@@ -4546,7 +4767,7 @@
         <v>233.84920634920636</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
         <v>84</v>
       </c>
@@ -4567,21 +4788,22 @@
         <v>20121</v>
       </c>
       <c r="G85" s="29">
-        <f t="shared" ref="G85:G86" si="11">F85/C85</f>
+        <f t="shared" ref="G85:G86" si="18">F85/C85</f>
         <v>159.6904761904762</v>
       </c>
       <c r="H85" s="28">
         <v>29465</v>
       </c>
       <c r="I85" s="29">
+        <f t="shared" si="17"/>
         <v>233.84920634920636</v>
       </c>
       <c r="J85" s="30">
-        <f t="shared" ref="J85:J86" si="12">I85/D85</f>
+        <f t="shared" ref="J85:J86" si="19">I85/D85</f>
         <v>233.84920634920636</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="37" t="s">
         <v>85</v>
       </c>
@@ -4602,21 +4824,22 @@
         <v>20121</v>
       </c>
       <c r="G86" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>159.6904761904762</v>
       </c>
       <c r="H86" s="28">
         <v>29465</v>
       </c>
       <c r="I86" s="29">
+        <f t="shared" si="17"/>
         <v>233.84920634920636</v>
       </c>
       <c r="J86" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>233.84920634920636</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
         <v>86</v>
       </c>
@@ -4627,12 +4850,16 @@
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
+      <c r="G87" s="23">
+        <v>0</v>
+      </c>
       <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="I87" s="23">
+        <v>0</v>
+      </c>
       <c r="J87" s="24"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
         <v>87</v>
       </c>
@@ -4652,20 +4879,21 @@
         <v>611230</v>
       </c>
       <c r="G88" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10187.166666666666</v>
       </c>
       <c r="H88" s="28">
         <v>48200</v>
       </c>
       <c r="I88" s="29">
+        <f t="shared" ref="I88:I92" si="20">H88/C88</f>
         <v>803.33333333333337</v>
       </c>
       <c r="J88" s="30">
         <v>401.66666666666669</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
         <v>88</v>
       </c>
@@ -4685,20 +4913,21 @@
         <v>244850</v>
       </c>
       <c r="G89" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4080.8333333333335</v>
       </c>
       <c r="H89" s="28">
         <v>34790</v>
       </c>
       <c r="I89" s="29">
+        <f t="shared" si="20"/>
         <v>579.83333333333337</v>
       </c>
       <c r="J89" s="30">
         <v>579.83333333333337</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
         <v>89</v>
       </c>
@@ -4718,20 +4947,21 @@
         <v>99863</v>
       </c>
       <c r="G90" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1248.2874999999999</v>
       </c>
       <c r="H90" s="28">
         <v>89378</v>
       </c>
       <c r="I90" s="29">
+        <f t="shared" si="20"/>
         <v>1117.2249999999999</v>
       </c>
       <c r="J90" s="30">
         <v>1117.2249999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
         <v>90</v>
       </c>
@@ -4751,20 +4981,21 @@
         <v>63400</v>
       </c>
       <c r="G91" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>792.5</v>
       </c>
       <c r="H91" s="28">
         <v>48144</v>
       </c>
       <c r="I91" s="29">
+        <f t="shared" si="20"/>
         <v>601.79999999999995</v>
       </c>
       <c r="J91" s="30">
         <v>601.79999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
         <v>91</v>
       </c>
@@ -4784,20 +5015,21 @@
         <v>32000</v>
       </c>
       <c r="G92" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="H92" s="28">
         <v>20000</v>
       </c>
       <c r="I92" s="29">
+        <f t="shared" si="20"/>
         <v>250</v>
       </c>
       <c r="J92" s="30">
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="37" t="s">
         <v>92</v>
       </c>
@@ -4817,14 +5049,16 @@
         <v>2443100</v>
       </c>
       <c r="G93" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13572.777777777777</v>
       </c>
       <c r="H93" s="28"/>
-      <c r="I93" s="29"/>
+      <c r="I93" s="29">
+        <v>0</v>
+      </c>
       <c r="J93" s="30"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="37" t="s">
         <v>93</v>
       </c>
@@ -4835,12 +5069,16 @@
       <c r="D94" s="39"/>
       <c r="E94" s="39"/>
       <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
+      <c r="G94" s="23">
+        <v>0</v>
+      </c>
       <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="I94" s="23">
+        <v>0</v>
+      </c>
       <c r="J94" s="24"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="37" t="s">
         <v>94</v>
       </c>
@@ -4860,20 +5098,21 @@
         <v>0</v>
       </c>
       <c r="G95" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H95" s="28">
         <v>207078</v>
       </c>
       <c r="I95" s="29">
+        <f>H95/C95</f>
         <v>6902.6</v>
       </c>
       <c r="J95" s="30">
         <v>431.41250000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="37" t="s">
         <v>95</v>
       </c>
@@ -4884,12 +5123,16 @@
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
       <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
+      <c r="G96" s="23">
+        <v>0</v>
+      </c>
       <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="I96" s="23">
+        <v>0</v>
+      </c>
       <c r="J96" s="24"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="37" t="s">
         <v>96</v>
       </c>
@@ -4909,20 +5152,21 @@
         <v>1617717</v>
       </c>
       <c r="G97" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53923.9</v>
       </c>
       <c r="H97" s="28">
         <v>482035</v>
       </c>
       <c r="I97" s="29">
+        <f t="shared" ref="I97:I102" si="21">H97/C97</f>
         <v>16067.833333333334</v>
       </c>
       <c r="J97" s="30">
         <v>2677.9722222222222</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="37" t="s">
         <v>97</v>
       </c>
@@ -4942,20 +5186,21 @@
         <v>1243001</v>
       </c>
       <c r="G98" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20716.683333333334</v>
       </c>
       <c r="H98" s="28">
         <v>230255</v>
       </c>
       <c r="I98" s="29">
+        <f t="shared" si="21"/>
         <v>3837.5833333333335</v>
       </c>
       <c r="J98" s="30">
         <v>959.39583333333337</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="37" t="s">
         <v>98</v>
       </c>
@@ -4975,20 +5220,21 @@
         <v>460791</v>
       </c>
       <c r="G99" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15359.7</v>
       </c>
       <c r="H99" s="28">
         <v>144098</v>
       </c>
       <c r="I99" s="29">
+        <f t="shared" si="21"/>
         <v>4803.2666666666664</v>
       </c>
       <c r="J99" s="30">
         <v>600.4083333333333</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="37" t="s">
         <v>99</v>
       </c>
@@ -5008,20 +5254,21 @@
         <v>840000</v>
       </c>
       <c r="G100" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
       <c r="H100" s="28">
         <v>4050</v>
       </c>
       <c r="I100" s="29">
+        <f t="shared" si="21"/>
         <v>135</v>
       </c>
       <c r="J100" s="30">
         <v>33.75</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="37" t="s">
         <v>100</v>
       </c>
@@ -5041,20 +5288,21 @@
         <v>10080</v>
       </c>
       <c r="G101" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="H101" s="28">
         <v>4900</v>
       </c>
       <c r="I101" s="29">
+        <f t="shared" si="21"/>
         <v>163.33333333333334</v>
       </c>
       <c r="J101" s="30">
         <v>163.33333333333334</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="37" t="s">
         <v>101</v>
       </c>
@@ -5074,20 +5322,21 @@
         <v>175050</v>
       </c>
       <c r="G102" s="29">
-        <f t="shared" ref="G102:G165" si="13">F102/C102</f>
+        <f t="shared" ref="G102:G165" si="22">F102/C102</f>
         <v>5835</v>
       </c>
       <c r="H102" s="28">
         <v>105030</v>
       </c>
       <c r="I102" s="29">
+        <f t="shared" si="21"/>
         <v>3501</v>
       </c>
       <c r="J102" s="30">
         <v>700.2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="37" t="s">
         <v>102</v>
       </c>
@@ -5098,12 +5347,16 @@
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
       <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
+      <c r="G103" s="23">
+        <v>0</v>
+      </c>
       <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
+      <c r="I103" s="23">
+        <v>0</v>
+      </c>
       <c r="J103" s="24"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="37" t="s">
         <v>103</v>
       </c>
@@ -5131,8 +5384,8 @@
         <f>43420/3</f>
         <v>14473.333333333334</v>
       </c>
-      <c r="I104" s="32">
-        <f>H104/C104</f>
+      <c r="I104" s="29">
+        <f t="shared" ref="I104:I106" si="23">H104/C104</f>
         <v>964.88888888888891</v>
       </c>
       <c r="J104" s="33">
@@ -5140,7 +5393,7 @@
         <v>482.44444444444446</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="37" t="s">
         <v>104</v>
       </c>
@@ -5157,27 +5410,27 @@
         <v>256</v>
       </c>
       <c r="F105" s="32">
-        <f t="shared" ref="F105:F106" si="14">597110.5/3</f>
+        <f t="shared" ref="F105:F106" si="24">597110.5/3</f>
         <v>199036.83333333334</v>
       </c>
       <c r="G105" s="32">
-        <f t="shared" ref="G105:G106" si="15">F105/C105</f>
+        <f t="shared" ref="G105:G106" si="25">F105/C105</f>
         <v>13269.122222222222</v>
       </c>
       <c r="H105" s="31">
-        <f t="shared" ref="H105:H106" si="16">43420/3</f>
+        <f t="shared" ref="H105:H106" si="26">43420/3</f>
         <v>14473.333333333334</v>
       </c>
-      <c r="I105" s="32">
-        <f t="shared" ref="I105:J105" si="17">H105/C105</f>
+      <c r="I105" s="29">
+        <f t="shared" si="23"/>
         <v>964.88888888888891</v>
       </c>
       <c r="J105" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I105:J105" si="27">I105/D105</f>
         <v>482.44444444444446</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="37" t="s">
         <v>105</v>
       </c>
@@ -5194,27 +5447,27 @@
         <v>256</v>
       </c>
       <c r="F106" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>199036.83333333334</v>
       </c>
       <c r="G106" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>13269.122222222222</v>
       </c>
       <c r="H106" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>14473.333333333334</v>
       </c>
-      <c r="I106" s="32">
-        <f t="shared" ref="I106:J106" si="18">H106/C106</f>
+      <c r="I106" s="29">
+        <f t="shared" si="23"/>
         <v>964.88888888888891</v>
       </c>
       <c r="J106" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I106:J106" si="28">I106/D106</f>
         <v>482.44444444444446</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="37" t="s">
         <v>106</v>
       </c>
@@ -5225,12 +5478,16 @@
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
       <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
+      <c r="G107" s="23">
+        <v>0</v>
+      </c>
       <c r="H107" s="22"/>
-      <c r="I107" s="23"/>
+      <c r="I107" s="23">
+        <v>0</v>
+      </c>
       <c r="J107" s="24"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="37" t="s">
         <v>107</v>
       </c>
@@ -5241,12 +5498,16 @@
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
       <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
+      <c r="G108" s="23">
+        <v>0</v>
+      </c>
       <c r="H108" s="22"/>
-      <c r="I108" s="23"/>
+      <c r="I108" s="23">
+        <v>0</v>
+      </c>
       <c r="J108" s="24"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="37" t="s">
         <v>108</v>
       </c>
@@ -5267,15 +5528,15 @@
         <v>17352.333333333332</v>
       </c>
       <c r="G109" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>137.71693121693121</v>
       </c>
       <c r="H109" s="31">
         <f>14090/3</f>
         <v>4696.666666666667</v>
       </c>
-      <c r="I109" s="32">
-        <f>H109/C109</f>
+      <c r="I109" s="29">
+        <f t="shared" ref="I109:I111" si="29">H109/C109</f>
         <v>37.275132275132279</v>
       </c>
       <c r="J109" s="33">
@@ -5283,7 +5544,7 @@
         <v>37.275132275132279</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="37" t="s">
         <v>109</v>
       </c>
@@ -5300,27 +5561,27 @@
         <v>256</v>
       </c>
       <c r="F110" s="32">
-        <f t="shared" ref="F110:F111" si="19">52057/3</f>
+        <f t="shared" ref="F110:F111" si="30">52057/3</f>
         <v>17352.333333333332</v>
       </c>
       <c r="G110" s="32">
-        <f t="shared" ref="G110:G111" si="20">F110/C110</f>
+        <f t="shared" ref="G110:G111" si="31">F110/C110</f>
         <v>137.71693121693121</v>
       </c>
       <c r="H110" s="31">
-        <f t="shared" ref="H110:H111" si="21">14090/3</f>
+        <f t="shared" ref="H110:H111" si="32">14090/3</f>
         <v>4696.666666666667</v>
       </c>
-      <c r="I110" s="32">
-        <f t="shared" ref="I110:J110" si="22">H110/C110</f>
+      <c r="I110" s="29">
+        <f t="shared" si="29"/>
         <v>37.275132275132279</v>
       </c>
       <c r="J110" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="I110:J110" si="33">I110/D110</f>
         <v>37.275132275132279</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="37" t="s">
         <v>110</v>
       </c>
@@ -5337,27 +5598,27 @@
         <v>256</v>
       </c>
       <c r="F111" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>17352.333333333332</v>
       </c>
       <c r="G111" s="32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>137.71693121693121</v>
       </c>
       <c r="H111" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>4696.666666666667</v>
       </c>
-      <c r="I111" s="32">
-        <f t="shared" ref="I111:J111" si="23">H111/C111</f>
+      <c r="I111" s="29">
+        <f t="shared" si="29"/>
         <v>37.275132275132279</v>
       </c>
       <c r="J111" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I111:J111" si="34">I111/D111</f>
         <v>37.275132275132279</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="37" t="s">
         <v>111</v>
       </c>
@@ -5368,12 +5629,16 @@
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
       <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
+      <c r="G112" s="23">
+        <v>0</v>
+      </c>
       <c r="H112" s="22"/>
-      <c r="I112" s="23"/>
+      <c r="I112" s="23">
+        <v>0</v>
+      </c>
       <c r="J112" s="24"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="37" t="s">
         <v>112</v>
       </c>
@@ -5394,15 +5659,15 @@
         <v>20121</v>
       </c>
       <c r="G113" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>159.6904761904762</v>
       </c>
       <c r="H113" s="31">
         <f>29465/3</f>
         <v>9821.6666666666661</v>
       </c>
-      <c r="I113" s="32">
-        <f>H113/C113</f>
+      <c r="I113" s="29">
+        <f t="shared" ref="I113:I115" si="35">H113/C113</f>
         <v>77.949735449735442</v>
       </c>
       <c r="J113" s="33">
@@ -5410,7 +5675,7 @@
         <v>77.949735449735442</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="37" t="s">
         <v>113</v>
       </c>
@@ -5427,27 +5692,27 @@
         <v>256</v>
       </c>
       <c r="F114" s="32">
-        <f t="shared" ref="F114:F115" si="24">60363/3</f>
+        <f t="shared" ref="F114:F115" si="36">60363/3</f>
         <v>20121</v>
       </c>
       <c r="G114" s="32">
-        <f t="shared" ref="G114:G115" si="25">F114/C114</f>
+        <f t="shared" ref="G114:G115" si="37">F114/C114</f>
         <v>159.6904761904762</v>
       </c>
       <c r="H114" s="31">
-        <f t="shared" ref="H114:H115" si="26">29465/3</f>
+        <f t="shared" ref="H114:H115" si="38">29465/3</f>
         <v>9821.6666666666661</v>
       </c>
-      <c r="I114" s="32">
-        <f t="shared" ref="I114:J114" si="27">H114/C114</f>
+      <c r="I114" s="29">
+        <f t="shared" si="35"/>
         <v>77.949735449735442</v>
       </c>
       <c r="J114" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I114:J114" si="39">I114/D114</f>
         <v>77.949735449735442</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="37" t="s">
         <v>114</v>
       </c>
@@ -5464,27 +5729,27 @@
         <v>256</v>
       </c>
       <c r="F115" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>20121</v>
       </c>
       <c r="G115" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>159.6904761904762</v>
       </c>
       <c r="H115" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>9821.6666666666661</v>
       </c>
-      <c r="I115" s="32">
-        <f t="shared" ref="I115:J115" si="28">H115/C115</f>
+      <c r="I115" s="29">
+        <f t="shared" si="35"/>
         <v>77.949735449735442</v>
       </c>
       <c r="J115" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I115:J115" si="40">I115/D115</f>
         <v>77.949735449735442</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="37" t="s">
         <v>115</v>
       </c>
@@ -5495,12 +5760,16 @@
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
       <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
+      <c r="G116" s="23">
+        <v>0</v>
+      </c>
       <c r="H116" s="22"/>
-      <c r="I116" s="23"/>
+      <c r="I116" s="23">
+        <v>0</v>
+      </c>
       <c r="J116" s="24"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="37" t="s">
         <v>116</v>
       </c>
@@ -5520,20 +5789,21 @@
         <v>768520</v>
       </c>
       <c r="G117" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>12808.666666666666</v>
       </c>
       <c r="H117" s="28">
         <v>61100</v>
       </c>
       <c r="I117" s="29">
+        <f t="shared" ref="I117:I121" si="41">H117/C117</f>
         <v>1018.3333333333334</v>
       </c>
       <c r="J117" s="30">
         <v>339.44444444444446</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="37" t="s">
         <v>117</v>
       </c>
@@ -5553,20 +5823,21 @@
         <v>403000</v>
       </c>
       <c r="G118" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>6716.666666666667</v>
       </c>
       <c r="H118" s="28">
         <v>57540</v>
       </c>
       <c r="I118" s="29">
+        <f t="shared" si="41"/>
         <v>959</v>
       </c>
       <c r="J118" s="30">
         <v>959</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="37" t="s">
         <v>118</v>
       </c>
@@ -5586,20 +5857,21 @@
         <v>110971</v>
       </c>
       <c r="G119" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1387.1375</v>
       </c>
       <c r="H119" s="28">
         <v>99181</v>
       </c>
       <c r="I119" s="29">
+        <f t="shared" si="41"/>
         <v>1239.7625</v>
       </c>
       <c r="J119" s="30">
         <v>1239.7625</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="37" t="s">
         <v>119</v>
       </c>
@@ -5619,20 +5891,21 @@
         <v>122400</v>
       </c>
       <c r="G120" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1530</v>
       </c>
       <c r="H120" s="28">
         <v>94776</v>
       </c>
       <c r="I120" s="29">
+        <f t="shared" si="41"/>
         <v>1184.7</v>
       </c>
       <c r="J120" s="30">
         <v>592.35</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="37" t="s">
         <v>120</v>
       </c>
@@ -5652,20 +5925,21 @@
         <v>36000</v>
       </c>
       <c r="G121" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>450</v>
       </c>
       <c r="H121" s="28">
         <v>22500</v>
       </c>
       <c r="I121" s="29">
+        <f t="shared" si="41"/>
         <v>281.25</v>
       </c>
       <c r="J121" s="30">
         <v>281.25</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="37" t="s">
         <v>121</v>
       </c>
@@ -5685,7 +5959,7 @@
         <v>4144850</v>
       </c>
       <c r="G122" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>23026.944444444445</v>
       </c>
       <c r="H122" s="28">
@@ -5698,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="37" t="s">
         <v>122</v>
       </c>
@@ -5709,12 +5983,16 @@
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
+      <c r="G123" s="23">
+        <v>0</v>
+      </c>
       <c r="H123" s="22"/>
-      <c r="I123" s="23"/>
+      <c r="I123" s="23">
+        <v>0</v>
+      </c>
       <c r="J123" s="24"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="37" t="s">
         <v>123</v>
       </c>
@@ -5734,20 +6012,21 @@
         <v>0</v>
       </c>
       <c r="G124" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H124" s="28">
         <v>253608</v>
       </c>
       <c r="I124" s="29">
+        <f t="shared" ref="I124:I125" si="42">H124/C124</f>
         <v>8453.6</v>
       </c>
       <c r="J124" s="30">
         <v>497.27058823529416</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="37" t="s">
         <v>124</v>
       </c>
@@ -5767,20 +6046,21 @@
         <v>834155.57620000001</v>
       </c>
       <c r="G125" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>11122.074349333334</v>
       </c>
       <c r="H125" s="28">
         <v>278048.2</v>
       </c>
       <c r="I125" s="29">
+        <f t="shared" si="42"/>
         <v>3707.3093333333336</v>
       </c>
       <c r="J125" s="30">
         <v>463.4136666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37" t="s">
         <v>125</v>
       </c>
@@ -5791,12 +6071,16 @@
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
       <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
+      <c r="G126" s="23">
+        <v>0</v>
+      </c>
       <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
+      <c r="I126" s="23">
+        <v>0</v>
+      </c>
       <c r="J126" s="24"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="37" t="s">
         <v>126</v>
       </c>
@@ -5816,20 +6100,21 @@
         <v>1377524</v>
       </c>
       <c r="G127" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>45917.466666666667</v>
       </c>
       <c r="H127" s="28">
         <v>402505</v>
       </c>
       <c r="I127" s="29">
+        <f t="shared" ref="I127:I131" si="43">H127/C127</f>
         <v>13416.833333333334</v>
       </c>
       <c r="J127" s="30">
         <v>2683.3666666666668</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="37" t="s">
         <v>127</v>
       </c>
@@ -5849,20 +6134,21 @@
         <v>1406155</v>
       </c>
       <c r="G128" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>23435.916666666668</v>
       </c>
       <c r="H128" s="28">
         <v>255370</v>
       </c>
       <c r="I128" s="29">
+        <f t="shared" si="43"/>
         <v>4256.166666666667</v>
       </c>
       <c r="J128" s="30">
         <v>851.23333333333335</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="37" t="s">
         <v>128</v>
       </c>
@@ -5882,20 +6168,21 @@
         <v>434956</v>
       </c>
       <c r="G129" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>14498.533333333333</v>
       </c>
       <c r="H129" s="28">
         <v>154571</v>
       </c>
       <c r="I129" s="29">
+        <f t="shared" si="43"/>
         <v>5152.3666666666668</v>
       </c>
       <c r="J129" s="30">
         <v>736.05238095238099</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="37" t="s">
         <v>129</v>
       </c>
@@ -5915,20 +6202,21 @@
         <v>725400</v>
       </c>
       <c r="G130" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>24180</v>
       </c>
       <c r="H130" s="28">
         <v>4950</v>
       </c>
       <c r="I130" s="29">
+        <f t="shared" si="43"/>
         <v>165</v>
       </c>
       <c r="J130" s="30">
         <v>20.625</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="37" t="s">
         <v>130</v>
       </c>
@@ -5948,20 +6236,21 @@
         <v>100720</v>
       </c>
       <c r="G131" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3357.3333333333335</v>
       </c>
       <c r="H131" s="28">
         <v>26500</v>
       </c>
       <c r="I131" s="29">
+        <f t="shared" si="43"/>
         <v>883.33333333333337</v>
       </c>
       <c r="J131" s="30">
         <v>441.66666666666669</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="37" t="s">
         <v>131</v>
       </c>
@@ -5981,20 +6270,20 @@
         <v>262561</v>
       </c>
       <c r="G132" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>4376.0166666666664</v>
       </c>
       <c r="H132" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="I132" s="29" t="s">
-        <v>281</v>
+      <c r="I132" s="29">
+        <v>0</v>
       </c>
       <c r="J132" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="37" t="s">
         <v>132</v>
       </c>
@@ -6014,20 +6303,21 @@
         <v>167400</v>
       </c>
       <c r="G133" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>5580</v>
       </c>
       <c r="H133" s="28">
         <v>100440</v>
       </c>
       <c r="I133" s="29">
+        <f>H133/C133</f>
         <v>3348</v>
       </c>
       <c r="J133" s="30">
         <v>837</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="37" t="s">
         <v>133</v>
       </c>
@@ -6038,12 +6328,16 @@
       <c r="D134" s="39"/>
       <c r="E134" s="39"/>
       <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
+      <c r="G134" s="23">
+        <v>0</v>
+      </c>
       <c r="H134" s="22"/>
-      <c r="I134" s="23"/>
+      <c r="I134" s="23">
+        <v>0</v>
+      </c>
       <c r="J134" s="24"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="37" t="s">
         <v>134</v>
       </c>
@@ -6064,15 +6358,15 @@
         <v>199036.83333333334</v>
       </c>
       <c r="G135" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>13269.122222222222</v>
       </c>
       <c r="H135" s="31">
         <f>43420/3</f>
         <v>14473.333333333334</v>
       </c>
-      <c r="I135" s="32">
-        <f>H135/C135</f>
+      <c r="I135" s="29">
+        <f t="shared" ref="I135:I137" si="44">H135/C135</f>
         <v>964.88888888888891</v>
       </c>
       <c r="J135" s="33">
@@ -6080,7 +6374,7 @@
         <v>482.44444444444446</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="37" t="s">
         <v>135</v>
       </c>
@@ -6097,27 +6391,27 @@
         <v>256</v>
       </c>
       <c r="F136" s="32">
-        <f t="shared" ref="F136:F137" si="29">597110.5/3</f>
+        <f t="shared" ref="F136:F137" si="45">597110.5/3</f>
         <v>199036.83333333334</v>
       </c>
       <c r="G136" s="32">
-        <f t="shared" ref="G136:G137" si="30">F136/C136</f>
+        <f t="shared" ref="G136:G137" si="46">F136/C136</f>
         <v>13269.122222222222</v>
       </c>
       <c r="H136" s="31">
-        <f t="shared" ref="H136:H137" si="31">43420/3</f>
+        <f t="shared" ref="H136:H137" si="47">43420/3</f>
         <v>14473.333333333334</v>
       </c>
-      <c r="I136" s="32">
-        <f t="shared" ref="I136:J136" si="32">H136/C136</f>
+      <c r="I136" s="29">
+        <f t="shared" si="44"/>
         <v>964.88888888888891</v>
       </c>
       <c r="J136" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="I136:J136" si="48">I136/D136</f>
         <v>482.44444444444446</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="37" t="s">
         <v>136</v>
       </c>
@@ -6134,27 +6428,27 @@
         <v>256</v>
       </c>
       <c r="F137" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="45"/>
         <v>199036.83333333334</v>
       </c>
       <c r="G137" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="46"/>
         <v>13269.122222222222</v>
       </c>
       <c r="H137" s="31">
-        <f t="shared" si="31"/>
+        <f t="shared" si="47"/>
         <v>14473.333333333334</v>
       </c>
-      <c r="I137" s="32">
-        <f t="shared" ref="I137:J137" si="33">H137/C137</f>
+      <c r="I137" s="29">
+        <f t="shared" si="44"/>
         <v>964.88888888888891</v>
       </c>
       <c r="J137" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="I137:J137" si="49">I137/D137</f>
         <v>482.44444444444446</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="37" t="s">
         <v>137</v>
       </c>
@@ -6165,12 +6459,16 @@
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
       <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
+      <c r="G138" s="23">
+        <v>0</v>
+      </c>
       <c r="H138" s="22"/>
-      <c r="I138" s="23"/>
+      <c r="I138" s="23">
+        <v>0</v>
+      </c>
       <c r="J138" s="24"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="37" t="s">
         <v>138</v>
       </c>
@@ -6181,12 +6479,16 @@
       <c r="D139" s="39"/>
       <c r="E139" s="39"/>
       <c r="F139" s="23"/>
-      <c r="G139" s="23"/>
+      <c r="G139" s="23">
+        <v>0</v>
+      </c>
       <c r="H139" s="22"/>
-      <c r="I139" s="23"/>
+      <c r="I139" s="23">
+        <v>0</v>
+      </c>
       <c r="J139" s="24"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="37" t="s">
         <v>139</v>
       </c>
@@ -6207,15 +6509,15 @@
         <v>16852.333333333332</v>
       </c>
       <c r="G140" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>133.74867724867724</v>
       </c>
       <c r="H140" s="31">
         <f>14090/3</f>
         <v>4696.666666666667</v>
       </c>
-      <c r="I140" s="32">
-        <f>H140/C140</f>
+      <c r="I140" s="29">
+        <f t="shared" ref="I140:I142" si="50">H140/C140</f>
         <v>37.275132275132279</v>
       </c>
       <c r="J140" s="33">
@@ -6223,7 +6525,7 @@
         <v>37.275132275132279</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="37" t="s">
         <v>140</v>
       </c>
@@ -6240,27 +6542,27 @@
         <v>256</v>
       </c>
       <c r="F141" s="32">
-        <f t="shared" ref="F141:F142" si="34">50557/3</f>
+        <f t="shared" ref="F141:F142" si="51">50557/3</f>
         <v>16852.333333333332</v>
       </c>
       <c r="G141" s="32">
-        <f t="shared" ref="G141:G142" si="35">F141/C141</f>
+        <f t="shared" ref="G141:G142" si="52">F141/C141</f>
         <v>133.74867724867724</v>
       </c>
       <c r="H141" s="31">
-        <f t="shared" ref="H141:H142" si="36">14090/3</f>
+        <f t="shared" ref="H141:H142" si="53">14090/3</f>
         <v>4696.666666666667</v>
       </c>
-      <c r="I141" s="32">
-        <f t="shared" ref="I141:J141" si="37">H141/C141</f>
+      <c r="I141" s="29">
+        <f t="shared" si="50"/>
         <v>37.275132275132279</v>
       </c>
       <c r="J141" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="I141:J141" si="54">I141/D141</f>
         <v>37.275132275132279</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="37" t="s">
         <v>141</v>
       </c>
@@ -6277,27 +6579,27 @@
         <v>256</v>
       </c>
       <c r="F142" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="51"/>
         <v>16852.333333333332</v>
       </c>
       <c r="G142" s="32">
-        <f t="shared" si="35"/>
+        <f t="shared" si="52"/>
         <v>133.74867724867724</v>
       </c>
       <c r="H142" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="53"/>
         <v>4696.666666666667</v>
       </c>
-      <c r="I142" s="32">
-        <f t="shared" ref="I142:J142" si="38">H142/C142</f>
+      <c r="I142" s="29">
+        <f t="shared" si="50"/>
         <v>37.275132275132279</v>
       </c>
       <c r="J142" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="I142:J142" si="55">I142/D142</f>
         <v>37.275132275132279</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="37" t="s">
         <v>142</v>
       </c>
@@ -6308,12 +6610,16 @@
       <c r="D143" s="39"/>
       <c r="E143" s="39"/>
       <c r="F143" s="23"/>
-      <c r="G143" s="23"/>
+      <c r="G143" s="23">
+        <v>0</v>
+      </c>
       <c r="H143" s="22"/>
-      <c r="I143" s="23"/>
+      <c r="I143" s="23">
+        <v>0</v>
+      </c>
       <c r="J143" s="24"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="37" t="s">
         <v>143</v>
       </c>
@@ -6334,15 +6640,15 @@
         <v>24601</v>
       </c>
       <c r="G144" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>195.24603174603175</v>
       </c>
       <c r="H144" s="31">
         <f>33445/3</f>
         <v>11148.333333333334</v>
       </c>
-      <c r="I144" s="32">
-        <f>H144/C144</f>
+      <c r="I144" s="29">
+        <f t="shared" ref="I144:I146" si="56">H144/C144</f>
         <v>88.478835978835988</v>
       </c>
       <c r="J144" s="33">
@@ -6350,7 +6656,7 @@
         <v>88.478835978835988</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="37" t="s">
         <v>144</v>
       </c>
@@ -6367,27 +6673,27 @@
         <v>256</v>
       </c>
       <c r="F145" s="32">
-        <f t="shared" ref="F145:F146" si="39">73803/3</f>
+        <f t="shared" ref="F145:F146" si="57">73803/3</f>
         <v>24601</v>
       </c>
       <c r="G145" s="32">
-        <f t="shared" ref="G145:G146" si="40">F145/C145</f>
+        <f t="shared" ref="G145:G146" si="58">F145/C145</f>
         <v>195.24603174603175</v>
       </c>
       <c r="H145" s="31">
-        <f t="shared" ref="H145:H146" si="41">33445/3</f>
+        <f t="shared" ref="H145:H146" si="59">33445/3</f>
         <v>11148.333333333334</v>
       </c>
-      <c r="I145" s="32">
-        <f t="shared" ref="I145:J145" si="42">H145/C145</f>
+      <c r="I145" s="29">
+        <f t="shared" si="56"/>
         <v>88.478835978835988</v>
       </c>
       <c r="J145" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="I145:J145" si="60">I145/D145</f>
         <v>88.478835978835988</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="37" t="s">
         <v>145</v>
       </c>
@@ -6404,27 +6710,27 @@
         <v>256</v>
       </c>
       <c r="F146" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="57"/>
         <v>24601</v>
       </c>
       <c r="G146" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="58"/>
         <v>195.24603174603175</v>
       </c>
       <c r="H146" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="59"/>
         <v>11148.333333333334</v>
       </c>
-      <c r="I146" s="32">
-        <f t="shared" ref="I146:J146" si="43">H146/C146</f>
+      <c r="I146" s="29">
+        <f t="shared" si="56"/>
         <v>88.478835978835988</v>
       </c>
       <c r="J146" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="I146:J146" si="61">I146/D146</f>
         <v>88.478835978835988</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="37" t="s">
         <v>146</v>
       </c>
@@ -6435,12 +6741,16 @@
       <c r="D147" s="39"/>
       <c r="E147" s="39"/>
       <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
+      <c r="G147" s="23">
+        <v>0</v>
+      </c>
       <c r="H147" s="22"/>
-      <c r="I147" s="23"/>
+      <c r="I147" s="23">
+        <v>0</v>
+      </c>
       <c r="J147" s="24"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="37" t="s">
         <v>147</v>
       </c>
@@ -6460,20 +6770,21 @@
         <v>572310</v>
       </c>
       <c r="G148" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>9538.5</v>
       </c>
       <c r="H148" s="28">
         <v>44580</v>
       </c>
       <c r="I148" s="29">
+        <f t="shared" ref="I148:I152" si="62">H148/C148</f>
         <v>743</v>
       </c>
       <c r="J148" s="30">
         <v>371.5</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="37" t="s">
         <v>148</v>
       </c>
@@ -6493,20 +6804,21 @@
         <v>182700</v>
       </c>
       <c r="G149" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>3045</v>
       </c>
       <c r="H149" s="28">
         <v>29010</v>
       </c>
       <c r="I149" s="29">
+        <f t="shared" si="62"/>
         <v>483.5</v>
       </c>
       <c r="J149" s="30">
         <v>483.5</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="37" t="s">
         <v>149</v>
       </c>
@@ -6526,20 +6838,21 @@
         <v>87289</v>
       </c>
       <c r="G150" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1091.1125</v>
       </c>
       <c r="H150" s="28">
         <v>77639</v>
       </c>
       <c r="I150" s="29">
+        <f t="shared" si="62"/>
         <v>970.48749999999995</v>
       </c>
       <c r="J150" s="30">
         <v>970.48749999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="37" t="s">
         <v>150</v>
       </c>
@@ -6559,20 +6872,21 @@
         <v>95925</v>
       </c>
       <c r="G151" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1199.0625</v>
       </c>
       <c r="H151" s="28">
         <v>74020</v>
       </c>
       <c r="I151" s="29">
+        <f t="shared" si="62"/>
         <v>925.25</v>
       </c>
       <c r="J151" s="30">
         <v>925.25</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="37" t="s">
         <v>151</v>
       </c>
@@ -6592,20 +6906,21 @@
         <v>64000</v>
       </c>
       <c r="G152" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
       <c r="H152" s="28">
         <v>40000</v>
       </c>
       <c r="I152" s="29">
+        <f t="shared" si="62"/>
         <v>500</v>
       </c>
       <c r="J152" s="30">
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="37" t="s">
         <v>152</v>
       </c>
@@ -6625,20 +6940,20 @@
         <v>2093600</v>
       </c>
       <c r="G153" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>12688.484848484848</v>
       </c>
       <c r="H153" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="I153" s="29" t="s">
-        <v>281</v>
+      <c r="I153" s="29">
+        <v>0</v>
       </c>
       <c r="J153" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="37" t="s">
         <v>153</v>
       </c>
@@ -6649,12 +6964,16 @@
       <c r="D154" s="39"/>
       <c r="E154" s="39"/>
       <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
+      <c r="G154" s="23">
+        <v>0</v>
+      </c>
       <c r="H154" s="22"/>
-      <c r="I154" s="23"/>
+      <c r="I154" s="23">
+        <v>0</v>
+      </c>
       <c r="J154" s="24"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="37" t="s">
         <v>154</v>
       </c>
@@ -6674,20 +6993,21 @@
         <v>0</v>
       </c>
       <c r="G155" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H155" s="28">
         <v>86253</v>
       </c>
       <c r="I155" s="29">
+        <f t="shared" ref="I155:I156" si="63">H155/C155</f>
         <v>2875.1</v>
       </c>
       <c r="J155" s="30">
         <v>479.18333333333334</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="37" t="s">
         <v>155</v>
       </c>
@@ -6707,20 +7027,21 @@
         <v>1343566.19</v>
       </c>
       <c r="G156" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>17914.215866666666</v>
       </c>
       <c r="H156" s="28">
         <v>316570.40000000002</v>
       </c>
       <c r="I156" s="29">
+        <f t="shared" si="63"/>
         <v>4220.9386666666669</v>
       </c>
       <c r="J156" s="30">
         <v>468.99318518518521</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="37" t="s">
         <v>156</v>
       </c>
@@ -6731,12 +7052,16 @@
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
       <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
+      <c r="G157" s="23">
+        <v>0</v>
+      </c>
       <c r="H157" s="22"/>
-      <c r="I157" s="23"/>
+      <c r="I157" s="23">
+        <v>0</v>
+      </c>
       <c r="J157" s="24"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="37" t="s">
         <v>157</v>
       </c>
@@ -6756,20 +7081,21 @@
         <v>604780</v>
       </c>
       <c r="G158" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>20159.333333333332</v>
       </c>
       <c r="H158" s="28">
         <v>193050</v>
       </c>
       <c r="I158" s="29">
+        <f t="shared" ref="I158:I163" si="64">H158/C158</f>
         <v>6435</v>
       </c>
       <c r="J158" s="30">
         <v>2145</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="37" t="s">
         <v>158</v>
       </c>
@@ -6789,20 +7115,21 @@
         <v>1116260</v>
       </c>
       <c r="G159" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>18604.333333333332</v>
       </c>
       <c r="H159" s="28">
         <v>184190</v>
       </c>
       <c r="I159" s="29">
+        <f t="shared" si="64"/>
         <v>3069.8333333333335</v>
       </c>
       <c r="J159" s="30">
         <v>1023.2777777777778</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="37" t="s">
         <v>159</v>
       </c>
@@ -6822,20 +7149,21 @@
         <v>165294</v>
       </c>
       <c r="G160" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>5509.8</v>
       </c>
       <c r="H160" s="28">
         <v>101472</v>
       </c>
       <c r="I160" s="29">
+        <f t="shared" si="64"/>
         <v>3382.4</v>
       </c>
       <c r="J160" s="30">
         <v>845.6</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="37" t="s">
         <v>160</v>
       </c>
@@ -6855,20 +7183,21 @@
         <v>882900</v>
       </c>
       <c r="G161" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>29430</v>
       </c>
       <c r="H161" s="28">
         <v>900</v>
       </c>
       <c r="I161" s="29">
+        <f t="shared" si="64"/>
         <v>30</v>
       </c>
       <c r="J161" s="30">
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="37" t="s">
         <v>161</v>
       </c>
@@ -6888,20 +7217,21 @@
         <v>83503</v>
       </c>
       <c r="G162" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2783.4333333333334</v>
       </c>
       <c r="H162" s="28">
         <v>30345</v>
       </c>
       <c r="I162" s="29">
+        <f t="shared" si="64"/>
         <v>1011.5</v>
       </c>
       <c r="J162" s="30">
         <v>505.75</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="37" t="s">
         <v>162</v>
       </c>
@@ -6921,20 +7251,21 @@
         <v>69850</v>
       </c>
       <c r="G163" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2328.3333333333335</v>
       </c>
       <c r="H163" s="28">
         <v>39240</v>
       </c>
       <c r="I163" s="29">
+        <f t="shared" si="64"/>
         <v>1308</v>
       </c>
       <c r="J163" s="30">
         <v>654</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="37" t="s">
         <v>163</v>
       </c>
@@ -6945,12 +7276,16 @@
       <c r="D164" s="39"/>
       <c r="E164" s="39"/>
       <c r="F164" s="23"/>
-      <c r="G164" s="23"/>
+      <c r="G164" s="23">
+        <v>0</v>
+      </c>
       <c r="H164" s="22"/>
-      <c r="I164" s="23"/>
+      <c r="I164" s="23">
+        <v>0</v>
+      </c>
       <c r="J164" s="24"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="37" t="s">
         <v>164</v>
       </c>
@@ -6970,20 +7305,21 @@
         <v>170173</v>
       </c>
       <c r="G165" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>11344.866666666667</v>
       </c>
       <c r="H165" s="28">
         <v>11990</v>
       </c>
       <c r="I165" s="29">
+        <f>H165/C165</f>
         <v>799.33333333333337</v>
       </c>
       <c r="J165" s="30">
         <v>266.44444444444446</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="37" t="s">
         <v>165</v>
       </c>
@@ -6994,12 +7330,16 @@
       <c r="D166" s="39"/>
       <c r="E166" s="39"/>
       <c r="F166" s="23"/>
-      <c r="G166" s="23"/>
+      <c r="G166" s="23">
+        <v>0</v>
+      </c>
       <c r="H166" s="22"/>
-      <c r="I166" s="23"/>
+      <c r="I166" s="23">
+        <v>0</v>
+      </c>
       <c r="J166" s="24"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="37" t="s">
         <v>166</v>
       </c>
@@ -7010,12 +7350,16 @@
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
       <c r="F167" s="23"/>
-      <c r="G167" s="23"/>
+      <c r="G167" s="23">
+        <v>0</v>
+      </c>
       <c r="H167" s="22"/>
-      <c r="I167" s="23"/>
+      <c r="I167" s="23">
+        <v>0</v>
+      </c>
       <c r="J167" s="24"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="37" t="s">
         <v>167</v>
       </c>
@@ -7035,20 +7379,21 @@
         <v>16876</v>
       </c>
       <c r="G168" s="29">
-        <f t="shared" ref="G168:G229" si="44">F168/C168</f>
+        <f t="shared" ref="G168:G229" si="65">F168/C168</f>
         <v>133.93650793650792</v>
       </c>
       <c r="H168" s="28">
         <v>4120</v>
       </c>
       <c r="I168" s="29">
+        <f>H168/C168</f>
         <v>32.698412698412696</v>
       </c>
       <c r="J168" s="30">
         <v>32.698412698412696</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="37" t="s">
         <v>168</v>
       </c>
@@ -7059,12 +7404,16 @@
       <c r="D169" s="39"/>
       <c r="E169" s="39"/>
       <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
+      <c r="G169" s="23">
+        <v>0</v>
+      </c>
       <c r="H169" s="22"/>
-      <c r="I169" s="23"/>
+      <c r="I169" s="23">
+        <v>0</v>
+      </c>
       <c r="J169" s="24"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="37" t="s">
         <v>169</v>
       </c>
@@ -7084,20 +7433,21 @@
         <v>25928</v>
       </c>
       <c r="G170" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>205.77777777777777</v>
       </c>
       <c r="H170" s="28">
         <v>9945</v>
       </c>
       <c r="I170" s="29">
+        <f t="shared" ref="I170:I171" si="66">H170/C170</f>
         <v>78.928571428571431</v>
       </c>
       <c r="J170" s="30">
         <v>78.928571428571431</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="37" t="s">
         <v>170</v>
       </c>
@@ -7117,20 +7467,21 @@
         <v>15500</v>
       </c>
       <c r="G171" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>206.66666666666666</v>
       </c>
       <c r="H171" s="28">
         <v>15500</v>
       </c>
       <c r="I171" s="29">
+        <f t="shared" si="66"/>
         <v>206.66666666666666</v>
       </c>
       <c r="J171" s="30">
         <v>206.66666666666666</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="37" t="s">
         <v>171</v>
       </c>
@@ -7141,12 +7492,16 @@
       <c r="D172" s="39"/>
       <c r="E172" s="39"/>
       <c r="F172" s="23"/>
-      <c r="G172" s="23"/>
+      <c r="G172" s="23">
+        <v>0</v>
+      </c>
       <c r="H172" s="22"/>
-      <c r="I172" s="23"/>
+      <c r="I172" s="23">
+        <v>0</v>
+      </c>
       <c r="J172" s="24"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="37" t="s">
         <v>172</v>
       </c>
@@ -7166,20 +7521,21 @@
         <v>343720</v>
       </c>
       <c r="G173" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>5728.666666666667</v>
       </c>
       <c r="H173" s="28">
         <v>31130</v>
       </c>
       <c r="I173" s="29">
+        <f t="shared" ref="I173:I177" si="67">H173/C173</f>
         <v>518.83333333333337</v>
       </c>
       <c r="J173" s="30">
         <v>259.41666666666669</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="37" t="s">
         <v>173</v>
       </c>
@@ -7199,20 +7555,21 @@
         <v>103650</v>
       </c>
       <c r="G174" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>1727.5</v>
       </c>
       <c r="H174" s="28">
         <v>17600</v>
       </c>
       <c r="I174" s="29">
+        <f t="shared" si="67"/>
         <v>293.33333333333331</v>
       </c>
       <c r="J174" s="30">
         <v>293.33333333333331</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="37" t="s">
         <v>174</v>
       </c>
@@ -7232,20 +7589,21 @@
         <v>54989</v>
       </c>
       <c r="G175" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>687.36249999999995</v>
       </c>
       <c r="H175" s="28">
         <v>49169</v>
       </c>
       <c r="I175" s="29">
+        <f t="shared" si="67"/>
         <v>614.61249999999995</v>
       </c>
       <c r="J175" s="30">
         <v>614.61249999999995</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="37" t="s">
         <v>175</v>
       </c>
@@ -7265,20 +7623,21 @@
         <v>7600</v>
       </c>
       <c r="G176" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>95</v>
       </c>
       <c r="H176" s="28">
         <v>4864</v>
       </c>
       <c r="I176" s="29">
+        <f t="shared" si="67"/>
         <v>60.8</v>
       </c>
       <c r="J176" s="30">
         <v>60.8</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="37" t="s">
         <v>176</v>
       </c>
@@ -7298,20 +7657,21 @@
         <v>40000</v>
       </c>
       <c r="G177" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>500</v>
       </c>
       <c r="H177" s="28">
         <v>25000</v>
       </c>
       <c r="I177" s="29">
+        <f t="shared" si="67"/>
         <v>312.5</v>
       </c>
       <c r="J177" s="30">
         <v>312.5</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="37" t="s">
         <v>177</v>
       </c>
@@ -7331,7 +7691,7 @@
         <v>878600</v>
       </c>
       <c r="G178" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>5324.848484848485</v>
       </c>
       <c r="H178" s="28">
@@ -7344,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="37" t="s">
         <v>178</v>
       </c>
@@ -7355,12 +7715,16 @@
       <c r="D179" s="39"/>
       <c r="E179" s="39"/>
       <c r="F179" s="23"/>
-      <c r="G179" s="23"/>
+      <c r="G179" s="23">
+        <v>0</v>
+      </c>
       <c r="H179" s="22"/>
-      <c r="I179" s="23"/>
+      <c r="I179" s="23">
+        <v>0</v>
+      </c>
       <c r="J179" s="24"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="37" t="s">
         <v>179</v>
       </c>
@@ -7371,12 +7735,16 @@
       <c r="D180" s="39"/>
       <c r="E180" s="39"/>
       <c r="F180" s="23"/>
-      <c r="G180" s="23"/>
+      <c r="G180" s="23">
+        <v>0</v>
+      </c>
       <c r="H180" s="22"/>
-      <c r="I180" s="23"/>
+      <c r="I180" s="23">
+        <v>0</v>
+      </c>
       <c r="J180" s="24"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="37" t="s">
         <v>180</v>
       </c>
@@ -7397,15 +7765,15 @@
         <v>204472</v>
       </c>
       <c r="G181" s="32">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>1277.95</v>
       </c>
       <c r="H181" s="31">
         <f>377820/5</f>
         <v>75564</v>
       </c>
-      <c r="I181" s="32">
-        <f>H181/C181</f>
+      <c r="I181" s="29">
+        <f t="shared" ref="I181:I185" si="68">H181/C181</f>
         <v>472.27499999999998</v>
       </c>
       <c r="J181" s="33">
@@ -7413,7 +7781,7 @@
         <v>236.13749999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="37" t="s">
         <v>181</v>
       </c>
@@ -7430,27 +7798,27 @@
         <v>257</v>
       </c>
       <c r="F182" s="32">
-        <f t="shared" ref="F182:F185" si="45">1022360/5</f>
+        <f t="shared" ref="F182:F185" si="69">1022360/5</f>
         <v>204472</v>
       </c>
       <c r="G182" s="32">
-        <f t="shared" ref="G182:G185" si="46">F182/C182</f>
+        <f t="shared" ref="G182:G185" si="70">F182/C182</f>
         <v>1168.4114285714286</v>
       </c>
       <c r="H182" s="31">
-        <f t="shared" ref="H182:H185" si="47">377820/5</f>
+        <f t="shared" ref="H182:H185" si="71">377820/5</f>
         <v>75564</v>
       </c>
-      <c r="I182" s="32">
-        <f t="shared" ref="I182:J182" si="48">H182/C182</f>
+      <c r="I182" s="29">
+        <f t="shared" si="68"/>
         <v>431.79428571428571</v>
       </c>
       <c r="J182" s="33">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="I182:J182" si="72">I182/D182</f>
         <v>215.89714285714285</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="37" t="s">
         <v>182</v>
       </c>
@@ -7467,27 +7835,27 @@
         <v>257</v>
       </c>
       <c r="F183" s="32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="69"/>
         <v>204472</v>
       </c>
       <c r="G183" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>1168.4114285714286</v>
       </c>
       <c r="H183" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="71"/>
         <v>75564</v>
       </c>
-      <c r="I183" s="32">
-        <f t="shared" ref="I183:J183" si="49">H183/C183</f>
+      <c r="I183" s="29">
+        <f t="shared" si="68"/>
         <v>431.79428571428571</v>
       </c>
       <c r="J183" s="33">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="I183:J183" si="73">I183/D183</f>
         <v>215.89714285714285</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="37" t="s">
         <v>183</v>
       </c>
@@ -7504,27 +7872,27 @@
         <v>257</v>
       </c>
       <c r="F184" s="32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="69"/>
         <v>204472</v>
       </c>
       <c r="G184" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>1277.95</v>
       </c>
       <c r="H184" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="71"/>
         <v>75564</v>
       </c>
-      <c r="I184" s="32">
-        <f t="shared" ref="I184:J184" si="50">H184/C184</f>
+      <c r="I184" s="29">
+        <f t="shared" si="68"/>
         <v>472.27499999999998</v>
       </c>
       <c r="J184" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="I184:J184" si="74">I184/D184</f>
         <v>236.13749999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="37" t="s">
         <v>184</v>
       </c>
@@ -7541,27 +7909,27 @@
         <v>257</v>
       </c>
       <c r="F185" s="32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="69"/>
         <v>204472</v>
       </c>
       <c r="G185" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="70"/>
         <v>1277.95</v>
       </c>
       <c r="H185" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="71"/>
         <v>75564</v>
       </c>
-      <c r="I185" s="32">
-        <f t="shared" ref="I185:J185" si="51">H185/C185</f>
+      <c r="I185" s="29">
+        <f t="shared" si="68"/>
         <v>472.27499999999998</v>
       </c>
       <c r="J185" s="33">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="I185:J185" si="75">I185/D185</f>
         <v>236.13749999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="37" t="s">
         <v>185</v>
       </c>
@@ -7572,12 +7940,16 @@
       <c r="D186" s="39"/>
       <c r="E186" s="39"/>
       <c r="F186" s="23"/>
-      <c r="G186" s="23"/>
+      <c r="G186" s="23">
+        <v>0</v>
+      </c>
       <c r="H186" s="22"/>
-      <c r="I186" s="23"/>
+      <c r="I186" s="23">
+        <v>0</v>
+      </c>
       <c r="J186" s="24"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="37" t="s">
         <v>186</v>
       </c>
@@ -7605,8 +7977,8 @@
         <f>257280/5</f>
         <v>51456</v>
       </c>
-      <c r="I187" s="32">
-        <f>H187/C187</f>
+      <c r="I187" s="29">
+        <f t="shared" ref="I187:I191" si="76">H187/C187</f>
         <v>321.60000000000002</v>
       </c>
       <c r="J187" s="33">
@@ -7614,7 +7986,7 @@
         <v>321.60000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="37" t="s">
         <v>187</v>
       </c>
@@ -7631,27 +8003,27 @@
         <v>257</v>
       </c>
       <c r="F188" s="32">
-        <f t="shared" ref="F188:F191" si="52">988300/5</f>
+        <f t="shared" ref="F188:F191" si="77">988300/5</f>
         <v>197660</v>
       </c>
       <c r="G188" s="32">
-        <f t="shared" ref="G188:G191" si="53">F188/C188</f>
+        <f t="shared" ref="G188:G191" si="78">F188/C188</f>
         <v>1129.4857142857143</v>
       </c>
       <c r="H188" s="31">
-        <f t="shared" ref="H188:H191" si="54">257280/5</f>
+        <f t="shared" ref="H188:H191" si="79">257280/5</f>
         <v>51456</v>
       </c>
-      <c r="I188" s="32">
-        <f t="shared" ref="I188:J188" si="55">H188/C188</f>
+      <c r="I188" s="29">
+        <f t="shared" si="76"/>
         <v>294.03428571428572</v>
       </c>
       <c r="J188" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="I188:J188" si="80">I188/D188</f>
         <v>294.03428571428572</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="37" t="s">
         <v>188</v>
       </c>
@@ -7668,27 +8040,27 @@
         <v>257</v>
       </c>
       <c r="F189" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="77"/>
         <v>197660</v>
       </c>
       <c r="G189" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="78"/>
         <v>1129.4857142857143</v>
       </c>
       <c r="H189" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="79"/>
         <v>51456</v>
       </c>
-      <c r="I189" s="32">
-        <f t="shared" ref="I189:J189" si="56">H189/C189</f>
+      <c r="I189" s="29">
+        <f t="shared" si="76"/>
         <v>294.03428571428572</v>
       </c>
       <c r="J189" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="I189:J189" si="81">I189/D189</f>
         <v>294.03428571428572</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="37" t="s">
         <v>189</v>
       </c>
@@ -7705,27 +8077,27 @@
         <v>257</v>
       </c>
       <c r="F190" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="77"/>
         <v>197660</v>
       </c>
       <c r="G190" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="78"/>
         <v>1235.375</v>
       </c>
       <c r="H190" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="79"/>
         <v>51456</v>
       </c>
-      <c r="I190" s="32">
-        <f t="shared" ref="I190:J190" si="57">H190/C190</f>
+      <c r="I190" s="29">
+        <f t="shared" si="76"/>
         <v>321.60000000000002</v>
       </c>
       <c r="J190" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="I190:J190" si="82">I190/D190</f>
         <v>321.60000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="37" t="s">
         <v>190</v>
       </c>
@@ -7742,27 +8114,27 @@
         <v>257</v>
       </c>
       <c r="F191" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="77"/>
         <v>197660</v>
       </c>
       <c r="G191" s="32">
-        <f t="shared" si="53"/>
+        <f t="shared" si="78"/>
         <v>1235.375</v>
       </c>
       <c r="H191" s="31">
-        <f t="shared" si="54"/>
+        <f t="shared" si="79"/>
         <v>51456</v>
       </c>
-      <c r="I191" s="32">
-        <f t="shared" ref="I191:J191" si="58">H191/C191</f>
+      <c r="I191" s="29">
+        <f t="shared" si="76"/>
         <v>321.60000000000002</v>
       </c>
       <c r="J191" s="33">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="I191:J191" si="83">I191/D191</f>
         <v>321.60000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="37" t="s">
         <v>191</v>
       </c>
@@ -7773,12 +8145,16 @@
       <c r="D192" s="39"/>
       <c r="E192" s="39"/>
       <c r="F192" s="23"/>
-      <c r="G192" s="23"/>
+      <c r="G192" s="23">
+        <v>0</v>
+      </c>
       <c r="H192" s="22"/>
-      <c r="I192" s="23"/>
+      <c r="I192" s="23">
+        <v>0</v>
+      </c>
       <c r="J192" s="24"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="37" t="s">
         <v>192</v>
       </c>
@@ -7789,12 +8165,16 @@
       <c r="D193" s="39"/>
       <c r="E193" s="39"/>
       <c r="F193" s="23"/>
-      <c r="G193" s="23"/>
+      <c r="G193" s="23">
+        <v>0</v>
+      </c>
       <c r="H193" s="22"/>
-      <c r="I193" s="23"/>
+      <c r="I193" s="23">
+        <v>0</v>
+      </c>
       <c r="J193" s="24"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="37" t="s">
         <v>193</v>
       </c>
@@ -7814,20 +8194,21 @@
         <v>0</v>
       </c>
       <c r="G194" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H194" s="28">
         <v>61870</v>
       </c>
       <c r="I194" s="29">
+        <f>H194/C194</f>
         <v>374.969696969697</v>
       </c>
       <c r="J194" s="30">
         <v>374.969696969697</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="37" t="s">
         <v>194</v>
       </c>
@@ -7847,20 +8228,20 @@
         <v>123740</v>
       </c>
       <c r="G195" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>749.93939393939399</v>
       </c>
       <c r="H195" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="I195" s="29" t="s">
-        <v>281</v>
+      <c r="I195" s="29">
+        <v>0</v>
       </c>
       <c r="J195" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="37" t="s">
         <v>195</v>
       </c>
@@ -7880,20 +8261,21 @@
         <v>247480</v>
       </c>
       <c r="G196" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>1499.878787878788</v>
       </c>
       <c r="H196" s="28">
         <v>185610</v>
       </c>
       <c r="I196" s="29">
+        <f t="shared" ref="I196:I200" si="84">H196/C196</f>
         <v>1124.909090909091</v>
       </c>
       <c r="J196" s="30">
         <v>1124.909090909091</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="37" t="s">
         <v>196</v>
       </c>
@@ -7913,20 +8295,21 @@
         <v>0</v>
       </c>
       <c r="G197" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H197" s="28">
         <v>9230</v>
       </c>
       <c r="I197" s="29">
+        <f t="shared" si="84"/>
         <v>55.939393939393938</v>
       </c>
       <c r="J197" s="30">
         <v>55.939393939393938</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="37" t="s">
         <v>197</v>
       </c>
@@ -7946,20 +8329,21 @@
         <v>18460</v>
       </c>
       <c r="G198" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>111.87878787878788</v>
       </c>
       <c r="H198" s="28">
         <v>18460</v>
       </c>
       <c r="I198" s="29">
+        <f t="shared" si="84"/>
         <v>111.87878787878788</v>
       </c>
       <c r="J198" s="30">
         <v>111.87878787878788</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="37" t="s">
         <v>198</v>
       </c>
@@ -7979,20 +8363,21 @@
         <v>0</v>
       </c>
       <c r="G199" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H199" s="28">
         <v>76300</v>
       </c>
       <c r="I199" s="29">
+        <f t="shared" si="84"/>
         <v>847.77777777777783</v>
       </c>
       <c r="J199" s="30">
         <v>847.77777777777783</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="37" t="s">
         <v>199</v>
       </c>
@@ -8012,20 +8397,21 @@
         <v>654000</v>
       </c>
       <c r="G200" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>7266.666666666667</v>
       </c>
       <c r="H200" s="28">
         <v>218000</v>
       </c>
       <c r="I200" s="29">
+        <f t="shared" si="84"/>
         <v>2422.2222222222222</v>
       </c>
       <c r="J200" s="30">
         <v>2422.2222222222222</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="37" t="s">
         <v>200</v>
       </c>
@@ -8045,20 +8431,20 @@
         <v>2719600</v>
       </c>
       <c r="G201" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>30217.777777777777</v>
       </c>
       <c r="H201" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="I201" s="29" t="s">
-        <v>281</v>
+      <c r="I201" s="29">
+        <v>0</v>
       </c>
       <c r="J201" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="37" t="s">
         <v>201</v>
       </c>
@@ -8069,12 +8455,16 @@
       <c r="D202" s="39"/>
       <c r="E202" s="39"/>
       <c r="F202" s="23"/>
-      <c r="G202" s="23"/>
+      <c r="G202" s="23">
+        <v>0</v>
+      </c>
       <c r="H202" s="22"/>
-      <c r="I202" s="23"/>
+      <c r="I202" s="23">
+        <v>0</v>
+      </c>
       <c r="J202" s="24"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="37" t="s">
         <v>202</v>
       </c>
@@ -8094,20 +8484,21 @@
         <v>154700</v>
       </c>
       <c r="G203" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>937.57575757575762</v>
       </c>
       <c r="H203" s="28">
         <v>28560</v>
       </c>
       <c r="I203" s="29">
+        <f>H203/C203</f>
         <v>173.09090909090909</v>
       </c>
       <c r="J203" s="30">
         <v>173.09090909090909</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="37" t="s">
         <v>203</v>
       </c>
@@ -8118,12 +8509,16 @@
       <c r="D204" s="39"/>
       <c r="E204" s="39"/>
       <c r="F204" s="23"/>
-      <c r="G204" s="23"/>
+      <c r="G204" s="23">
+        <v>0</v>
+      </c>
       <c r="H204" s="22"/>
-      <c r="I204" s="23"/>
+      <c r="I204" s="23">
+        <v>0</v>
+      </c>
       <c r="J204" s="24"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="37" t="s">
         <v>204</v>
       </c>
@@ -8143,20 +8538,21 @@
         <v>0</v>
       </c>
       <c r="G205" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H205" s="28">
         <v>5000</v>
       </c>
       <c r="I205" s="29">
+        <f t="shared" ref="I205:I208" si="85">H205/C205</f>
         <v>30.303030303030305</v>
       </c>
       <c r="J205" s="30">
         <v>30.303030303030305</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="37" t="s">
         <v>205</v>
       </c>
@@ -8176,20 +8572,21 @@
         <v>965923.24989999994</v>
       </c>
       <c r="G206" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>5854.0803024242423</v>
       </c>
       <c r="H206" s="28">
         <v>340271.7</v>
       </c>
       <c r="I206" s="29">
+        <f t="shared" si="85"/>
         <v>2062.2527272727275</v>
       </c>
       <c r="J206" s="30">
         <v>515.56318181818187</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="37" t="s">
         <v>206</v>
       </c>
@@ -8209,20 +8606,21 @@
         <v>1820315</v>
       </c>
       <c r="G207" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>11032.212121212122</v>
       </c>
       <c r="H207" s="28">
         <v>310508</v>
       </c>
       <c r="I207" s="29">
+        <f t="shared" si="85"/>
         <v>1881.8666666666666</v>
       </c>
       <c r="J207" s="30">
         <v>1881.8666666666666</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="37" t="s">
         <v>207</v>
       </c>
@@ -8242,20 +8640,21 @@
         <v>136654</v>
       </c>
       <c r="G208" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>828.20606060606065</v>
       </c>
       <c r="H208" s="28">
         <v>17384</v>
       </c>
       <c r="I208" s="29">
+        <f t="shared" si="85"/>
         <v>105.35757575757576</v>
       </c>
       <c r="J208" s="30">
         <v>105.35757575757576</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="37" t="s">
         <v>208</v>
       </c>
@@ -8266,12 +8665,16 @@
       <c r="D209" s="39"/>
       <c r="E209" s="39"/>
       <c r="F209" s="23"/>
-      <c r="G209" s="23"/>
+      <c r="G209" s="23">
+        <v>0</v>
+      </c>
       <c r="H209" s="22"/>
-      <c r="I209" s="23"/>
+      <c r="I209" s="23">
+        <v>0</v>
+      </c>
       <c r="J209" s="24"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="37" t="s">
         <v>209</v>
       </c>
@@ -8282,12 +8685,16 @@
       <c r="D210" s="39"/>
       <c r="E210" s="39"/>
       <c r="F210" s="23"/>
-      <c r="G210" s="23"/>
+      <c r="G210" s="23">
+        <v>0</v>
+      </c>
       <c r="H210" s="22"/>
-      <c r="I210" s="23"/>
+      <c r="I210" s="23">
+        <v>0</v>
+      </c>
       <c r="J210" s="24"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="37" t="s">
         <v>210</v>
       </c>
@@ -8307,7 +8714,7 @@
         <v>67000</v>
       </c>
       <c r="G211" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4466.666666666667</v>
       </c>
       <c r="H211" s="28">
@@ -8320,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="37" t="s">
         <v>211</v>
       </c>
@@ -8340,7 +8747,7 @@
         <v>1283000</v>
       </c>
       <c r="G212" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>85533.333333333328</v>
       </c>
       <c r="H212" s="28">
@@ -8353,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="37" t="s">
         <v>212</v>
       </c>
@@ -8373,7 +8780,7 @@
         <v>2133290</v>
       </c>
       <c r="G213" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>142219.33333333334</v>
       </c>
       <c r="H213" s="28">
@@ -8386,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="37" t="s">
         <v>213</v>
       </c>
@@ -8406,7 +8813,7 @@
         <v>1026290</v>
       </c>
       <c r="G214" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>68419.333333333328</v>
       </c>
       <c r="H214" s="28">
@@ -8419,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="37" t="s">
         <v>214</v>
       </c>
@@ -8439,7 +8846,7 @@
         <v>771760</v>
       </c>
       <c r="G215" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>51450.666666666664</v>
       </c>
       <c r="H215" s="28">
@@ -8452,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="37" t="s">
         <v>215</v>
       </c>
@@ -8463,12 +8870,16 @@
       <c r="D216" s="39"/>
       <c r="E216" s="39"/>
       <c r="F216" s="23"/>
-      <c r="G216" s="23"/>
+      <c r="G216" s="23">
+        <v>0</v>
+      </c>
       <c r="H216" s="22"/>
-      <c r="I216" s="23"/>
+      <c r="I216" s="23">
+        <v>0</v>
+      </c>
       <c r="J216" s="24"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="37" t="s">
         <v>216</v>
       </c>
@@ -8488,7 +8899,7 @@
         <v>64500</v>
       </c>
       <c r="G217" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>2150</v>
       </c>
       <c r="H217" s="28">
@@ -8501,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="37" t="s">
         <v>217</v>
       </c>
@@ -8521,7 +8932,7 @@
         <v>168600</v>
       </c>
       <c r="G218" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>5620</v>
       </c>
       <c r="H218" s="28">
@@ -8534,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="37" t="s">
         <v>218</v>
       </c>
@@ -8554,7 +8965,7 @@
         <v>173400</v>
       </c>
       <c r="G219" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>5780</v>
       </c>
       <c r="H219" s="28">
@@ -8567,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="37" t="s">
         <v>219</v>
       </c>
@@ -8587,7 +8998,7 @@
         <v>76500</v>
       </c>
       <c r="G220" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>2550</v>
       </c>
       <c r="H220" s="28">
@@ -8600,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="37" t="s">
         <v>220</v>
       </c>
@@ -8611,12 +9022,16 @@
       <c r="D221" s="39"/>
       <c r="E221" s="39"/>
       <c r="F221" s="23"/>
-      <c r="G221" s="23"/>
+      <c r="G221" s="23">
+        <v>0</v>
+      </c>
       <c r="H221" s="22"/>
-      <c r="I221" s="23"/>
+      <c r="I221" s="23">
+        <v>0</v>
+      </c>
       <c r="J221" s="24"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="37" t="s">
         <v>221</v>
       </c>
@@ -8636,7 +9051,7 @@
         <v>479400</v>
       </c>
       <c r="G222" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>31960</v>
       </c>
       <c r="H222" s="28">
@@ -8649,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="37" t="s">
         <v>222</v>
       </c>
@@ -8669,7 +9084,7 @@
         <v>395600</v>
       </c>
       <c r="G223" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>26373.333333333332</v>
       </c>
       <c r="H223" s="28">
@@ -8682,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="37" t="s">
         <v>223</v>
       </c>
@@ -8702,7 +9117,7 @@
         <v>143000</v>
       </c>
       <c r="G224" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>9533.3333333333339</v>
       </c>
       <c r="H224" s="28">
@@ -8715,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="37" t="s">
         <v>224</v>
       </c>
@@ -8735,7 +9150,7 @@
         <v>106300</v>
       </c>
       <c r="G225" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>7086.666666666667</v>
       </c>
       <c r="H225" s="28">
@@ -8748,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="37" t="s">
         <v>225</v>
       </c>
@@ -8759,12 +9174,16 @@
       <c r="D226" s="39"/>
       <c r="E226" s="39"/>
       <c r="F226" s="23"/>
-      <c r="G226" s="23"/>
+      <c r="G226" s="23">
+        <v>0</v>
+      </c>
       <c r="H226" s="22"/>
-      <c r="I226" s="23"/>
+      <c r="I226" s="23">
+        <v>0</v>
+      </c>
       <c r="J226" s="24"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="37" t="s">
         <v>226</v>
       </c>
@@ -8784,7 +9203,7 @@
         <v>12000</v>
       </c>
       <c r="G227" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>800</v>
       </c>
       <c r="H227" s="28">
@@ -8797,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="37" t="s">
         <v>227</v>
       </c>
@@ -8817,7 +9236,7 @@
         <v>110000</v>
       </c>
       <c r="G228" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>7333.333333333333</v>
       </c>
       <c r="H228" s="28">
@@ -8830,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="37" t="s">
         <v>228</v>
       </c>
@@ -8850,7 +9269,7 @@
         <v>68000</v>
       </c>
       <c r="G229" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="65"/>
         <v>4533.333333333333</v>
       </c>
       <c r="H229" s="28">
@@ -8863,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="37" t="s">
         <v>229</v>
       </c>
@@ -8883,7 +9302,7 @@
         <v>32000</v>
       </c>
       <c r="G230" s="29">
-        <f t="shared" ref="G230:G251" si="59">F230/C230</f>
+        <f t="shared" ref="G230:G251" si="86">F230/C230</f>
         <v>2133.3333333333335</v>
       </c>
       <c r="H230" s="28">
@@ -8896,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="37" t="s">
         <v>230</v>
       </c>
@@ -8916,7 +9335,7 @@
         <v>25000</v>
       </c>
       <c r="G231" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>1666.6666666666667</v>
       </c>
       <c r="H231" s="28">
@@ -8929,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="37" t="s">
         <v>231</v>
       </c>
@@ -8940,12 +9359,16 @@
       <c r="D232" s="39"/>
       <c r="E232" s="39"/>
       <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
+      <c r="G232" s="23">
+        <v>0</v>
+      </c>
       <c r="H232" s="22"/>
-      <c r="I232" s="23"/>
+      <c r="I232" s="23">
+        <v>0</v>
+      </c>
       <c r="J232" s="24"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="37" t="s">
         <v>232</v>
       </c>
@@ -8965,7 +9388,7 @@
         <v>360000</v>
       </c>
       <c r="G233" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>24000</v>
       </c>
       <c r="H233" s="28">
@@ -8978,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="37" t="s">
         <v>233</v>
       </c>
@@ -8989,12 +9412,16 @@
       <c r="D234" s="39"/>
       <c r="E234" s="39"/>
       <c r="F234" s="23"/>
-      <c r="G234" s="23"/>
+      <c r="G234" s="23">
+        <v>0</v>
+      </c>
       <c r="H234" s="22"/>
-      <c r="I234" s="23"/>
+      <c r="I234" s="23">
+        <v>0</v>
+      </c>
       <c r="J234" s="24"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="37" t="s">
         <v>234</v>
       </c>
@@ -9015,15 +9442,15 @@
         <v>202430</v>
       </c>
       <c r="G235" s="32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>1265.1875</v>
       </c>
       <c r="H235" s="31">
         <f>145400/5</f>
         <v>29080</v>
       </c>
-      <c r="I235" s="32">
-        <f>H235/C235</f>
+      <c r="I235" s="29">
+        <f t="shared" ref="I235:I239" si="87">H235/C235</f>
         <v>181.75</v>
       </c>
       <c r="J235" s="33">
@@ -9031,7 +9458,7 @@
         <v>181.75</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="37" t="s">
         <v>235</v>
       </c>
@@ -9048,27 +9475,27 @@
         <v>257</v>
       </c>
       <c r="F236" s="32">
-        <f t="shared" ref="F236:F239" si="60">1012150/5</f>
+        <f t="shared" ref="F236:F239" si="88">1012150/5</f>
         <v>202430</v>
       </c>
       <c r="G236" s="32">
-        <f t="shared" ref="G236:G239" si="61">F236/C236</f>
+        <f t="shared" ref="G236:G239" si="89">F236/C236</f>
         <v>1265.1875</v>
       </c>
       <c r="H236" s="31">
-        <f t="shared" ref="H236:H239" si="62">145400/5</f>
+        <f t="shared" ref="H236:H239" si="90">145400/5</f>
         <v>29080</v>
       </c>
-      <c r="I236" s="32">
-        <f t="shared" ref="I236:J236" si="63">H236/C236</f>
+      <c r="I236" s="29">
+        <f t="shared" si="87"/>
         <v>181.75</v>
       </c>
       <c r="J236" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="I236:J236" si="91">I236/D236</f>
         <v>181.75</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="37" t="s">
         <v>236</v>
       </c>
@@ -9085,27 +9512,27 @@
         <v>257</v>
       </c>
       <c r="F237" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>202430</v>
       </c>
       <c r="G237" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="89"/>
         <v>1156.7428571428572</v>
       </c>
       <c r="H237" s="31">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>29080</v>
       </c>
-      <c r="I237" s="32">
-        <f t="shared" ref="I237:J237" si="64">H237/C237</f>
+      <c r="I237" s="29">
+        <f t="shared" si="87"/>
         <v>166.17142857142858</v>
       </c>
       <c r="J237" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="I237:J237" si="92">I237/D237</f>
         <v>166.17142857142858</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="37" t="s">
         <v>237</v>
       </c>
@@ -9122,27 +9549,27 @@
         <v>257</v>
       </c>
       <c r="F238" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>202430</v>
       </c>
       <c r="G238" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="89"/>
         <v>1156.7428571428572</v>
       </c>
       <c r="H238" s="31">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>29080</v>
       </c>
-      <c r="I238" s="32">
-        <f t="shared" ref="I238:J238" si="65">H238/C238</f>
+      <c r="I238" s="29">
+        <f t="shared" si="87"/>
         <v>166.17142857142858</v>
       </c>
       <c r="J238" s="33">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="I238:J238" si="93">I238/D238</f>
         <v>166.17142857142858</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="37" t="s">
         <v>238</v>
       </c>
@@ -9159,27 +9586,27 @@
         <v>257</v>
       </c>
       <c r="F239" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="88"/>
         <v>202430</v>
       </c>
       <c r="G239" s="32">
-        <f t="shared" si="61"/>
+        <f t="shared" si="89"/>
         <v>1265.1875</v>
       </c>
       <c r="H239" s="31">
-        <f t="shared" si="62"/>
+        <f t="shared" si="90"/>
         <v>29080</v>
       </c>
-      <c r="I239" s="32">
-        <f t="shared" ref="I239:J239" si="66">H239/C239</f>
+      <c r="I239" s="29">
+        <f t="shared" si="87"/>
         <v>181.75</v>
       </c>
       <c r="J239" s="33">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="I239:J239" si="94">I239/D239</f>
         <v>181.75</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="37" t="s">
         <v>239</v>
       </c>
@@ -9190,12 +9617,16 @@
       <c r="D240" s="39"/>
       <c r="E240" s="39"/>
       <c r="F240" s="23"/>
-      <c r="G240" s="23"/>
+      <c r="G240" s="23">
+        <v>0</v>
+      </c>
       <c r="H240" s="22"/>
-      <c r="I240" s="23"/>
+      <c r="I240" s="23">
+        <v>0</v>
+      </c>
       <c r="J240" s="24"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="37" t="s">
         <v>240</v>
       </c>
@@ -9215,20 +9646,21 @@
         <v>0</v>
       </c>
       <c r="G241" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H241" s="28">
         <v>150</v>
       </c>
       <c r="I241" s="29">
+        <f t="shared" ref="I241:I245" si="95">H241/C241</f>
         <v>21.428571428571427</v>
       </c>
       <c r="J241" s="30">
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="37" t="s">
         <v>241</v>
       </c>
@@ -9248,20 +9680,21 @@
         <v>17000</v>
       </c>
       <c r="G242" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>2428.5714285714284</v>
       </c>
       <c r="H242" s="28">
         <v>4850</v>
       </c>
       <c r="I242" s="29">
+        <f t="shared" si="95"/>
         <v>692.85714285714289</v>
       </c>
       <c r="J242" s="30">
         <v>230.95238095238096</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="37" t="s">
         <v>242</v>
       </c>
@@ -9281,20 +9714,21 @@
         <v>0</v>
       </c>
       <c r="G243" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H243" s="28">
         <v>5550</v>
       </c>
       <c r="I243" s="29">
+        <f t="shared" si="95"/>
         <v>792.85714285714289</v>
       </c>
       <c r="J243" s="30">
         <v>264.28571428571428</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="37" t="s">
         <v>243</v>
       </c>
@@ -9314,20 +9748,21 @@
         <v>0</v>
       </c>
       <c r="G244" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H244" s="28">
         <v>4050</v>
       </c>
       <c r="I244" s="29">
+        <f t="shared" si="95"/>
         <v>578.57142857142856</v>
       </c>
       <c r="J244" s="30">
         <v>289.28571428571428</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="37" t="s">
         <v>244</v>
       </c>
@@ -9347,20 +9782,21 @@
         <v>0</v>
       </c>
       <c r="G245" s="29">
-        <f t="shared" si="59"/>
+        <f>F245/C245</f>
         <v>0</v>
       </c>
       <c r="H245" s="28">
         <v>3000</v>
       </c>
       <c r="I245" s="29">
+        <f t="shared" si="95"/>
         <v>428.57142857142856</v>
       </c>
       <c r="J245" s="30">
         <v>214.28571428571428</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="37" t="s">
         <v>245</v>
       </c>
@@ -9371,12 +9807,16 @@
       <c r="D246" s="39"/>
       <c r="E246" s="39"/>
       <c r="F246" s="23"/>
-      <c r="G246" s="23"/>
+      <c r="G246" s="23">
+        <v>0</v>
+      </c>
       <c r="H246" s="22"/>
-      <c r="I246" s="23"/>
+      <c r="I246" s="23">
+        <v>0</v>
+      </c>
       <c r="J246" s="24"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="37" t="s">
         <v>246</v>
       </c>
@@ -9396,20 +9836,21 @@
         <v>0</v>
       </c>
       <c r="G247" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H247" s="28">
         <v>1200</v>
       </c>
       <c r="I247" s="29">
+        <f t="shared" ref="I247:I251" si="96">H247/C247</f>
         <v>171.42857142857142</v>
       </c>
       <c r="J247" s="30">
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="37" t="s">
         <v>247</v>
       </c>
@@ -9429,20 +9870,21 @@
         <v>0</v>
       </c>
       <c r="G248" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H248" s="28">
         <v>2400</v>
       </c>
       <c r="I248" s="29">
+        <f t="shared" si="96"/>
         <v>342.85714285714283</v>
       </c>
       <c r="J248" s="30">
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="37" t="s">
         <v>248</v>
       </c>
@@ -9462,20 +9904,21 @@
         <v>0</v>
       </c>
       <c r="G249" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H249" s="28">
         <v>1650</v>
       </c>
       <c r="I249" s="29">
+        <f t="shared" si="96"/>
         <v>235.71428571428572</v>
       </c>
       <c r="J249" s="30">
         <v>235.71428571428572</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="37" t="s">
         <v>249</v>
       </c>
@@ -9495,20 +9938,21 @@
         <v>0</v>
       </c>
       <c r="G250" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H250" s="28">
         <v>1050</v>
       </c>
       <c r="I250" s="29">
+        <f t="shared" si="96"/>
         <v>150</v>
       </c>
       <c r="J250" s="30">
         <v>150</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="41" t="s">
         <v>250</v>
       </c>
@@ -9528,20 +9972,21 @@
         <v>0</v>
       </c>
       <c r="G251" s="45">
-        <f t="shared" si="59"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H251" s="46">
         <v>1800</v>
       </c>
-      <c r="I251" s="44">
+      <c r="I251" s="29">
+        <f t="shared" si="96"/>
         <v>257.14285714285717</v>
       </c>
       <c r="J251" s="45">
         <v>128.57142857142858</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E252" s="1" t="s">
         <v>520</v>
       </c>
@@ -9551,13 +9996,13 @@
       </c>
       <c r="G252" s="47"/>
       <c r="H252" s="47">
-        <f t="shared" ref="H252" si="67">SUM(H2:H251)</f>
+        <f>SUM(H2:H251)</f>
         <v>9125924.2999999989</v>
       </c>
       <c r="I252" s="47"/>
       <c r="J252" s="47"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E253" s="53" t="s">
         <v>521</v>
       </c>
@@ -9566,11 +10011,11 @@
         <v>66314031.316099986</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E254" s="53"/>
       <c r="H254" s="47"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E255" s="53" t="s">
         <v>525</v>
       </c>
@@ -9582,7 +10027,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E256" s="53" t="s">
         <v>523</v>
       </c>
@@ -9593,88 +10038,194 @@
         <v>524</v>
       </c>
     </row>
-    <row r="257" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C257" s="56"/>
-      <c r="D257" s="56"/>
-      <c r="E257" s="57" t="s">
+    <row r="257" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C257" s="54"/>
+      <c r="D257" s="54"/>
+      <c r="E257" s="55" t="s">
         <v>526</v>
       </c>
-      <c r="F257" s="58">
+      <c r="F257" s="56">
         <f>F255/F256</f>
         <v>18954.760617851913</v>
       </c>
-      <c r="G257" s="59" t="s">
+      <c r="G257" s="57" t="s">
         <v>522</v>
       </c>
-      <c r="H257" s="60" t="s">
+      <c r="H257" s="58" t="s">
         <v>531</v>
       </c>
-      <c r="I257" s="59"/>
-      <c r="J257" s="59"/>
-    </row>
-    <row r="258" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C258" s="56"/>
-      <c r="D258" s="56"/>
-      <c r="E258" s="57"/>
-      <c r="F258" s="59"/>
-      <c r="G258" s="59"/>
-      <c r="H258" s="59"/>
-      <c r="I258" s="59"/>
-      <c r="J258" s="59"/>
-    </row>
-    <row r="259" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C259" s="56"/>
-      <c r="D259" s="56"/>
-      <c r="E259" s="57" t="s">
+      <c r="I257" s="57"/>
+      <c r="J257" s="57"/>
+    </row>
+    <row r="258" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C258" s="54"/>
+      <c r="D258" s="54"/>
+      <c r="E258" s="55"/>
+      <c r="F258" s="57"/>
+      <c r="G258" s="57"/>
+      <c r="H258" s="57"/>
+      <c r="I258" s="57"/>
+      <c r="J258" s="57"/>
+    </row>
+    <row r="259" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C259" s="54"/>
+      <c r="D259" s="54"/>
+      <c r="E259" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="F259" s="58">
+      <c r="F259" s="56">
         <f>(H253+F255)*0.1/100</f>
         <v>79961.458960953372</v>
       </c>
-      <c r="G259" s="59" t="s">
+      <c r="G259" s="57" t="s">
         <v>522</v>
       </c>
-      <c r="H259" s="59"/>
-      <c r="I259" s="59"/>
-      <c r="J259" s="59"/>
-    </row>
-    <row r="260" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C260" s="56"/>
-      <c r="D260" s="56"/>
-      <c r="E260" s="57" t="s">
+      <c r="H259" s="57"/>
+      <c r="I259" s="57"/>
+      <c r="J259" s="57"/>
+    </row>
+    <row r="260" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C260" s="54"/>
+      <c r="D260" s="54"/>
+      <c r="E260" s="55" t="s">
         <v>528</v>
       </c>
-      <c r="F260" s="58">
+      <c r="F260" s="56">
         <v>4233.33</v>
       </c>
-      <c r="G260" s="59" t="s">
+      <c r="G260" s="57" t="s">
         <v>522</v>
       </c>
-      <c r="H260" s="59"/>
-      <c r="I260" s="59"/>
-      <c r="J260" s="59"/>
-    </row>
-    <row r="261" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C261" s="56"/>
-      <c r="D261" s="56"/>
-      <c r="E261" s="57" t="s">
+      <c r="H260" s="57"/>
+      <c r="I260" s="57"/>
+      <c r="J260" s="57"/>
+    </row>
+    <row r="261" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C261" s="54"/>
+      <c r="D261" s="54"/>
+      <c r="E261" s="55" t="s">
         <v>527</v>
       </c>
-      <c r="F261" s="58">
+      <c r="F261" s="56">
         <f>F260+F259</f>
         <v>84194.788960953374</v>
       </c>
-      <c r="G261" s="59" t="s">
+      <c r="G261" s="57" t="s">
         <v>522</v>
       </c>
-      <c r="H261" s="60" t="s">
+      <c r="H261" s="58" t="s">
         <v>530</v>
       </c>
-      <c r="I261" s="59"/>
-      <c r="J261" s="59"/>
+      <c r="I261" s="57"/>
+      <c r="J261" s="57"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J253" xr:uid="{4AE9091D-C62E-7E41-8738-F69394C4D38A}">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="1011.50"/>
+        <filter val="1018.33"/>
+        <filter val="105.00"/>
+        <filter val="105.36"/>
+        <filter val="111.88"/>
+        <filter val="1117.23"/>
+        <filter val="1124.91"/>
+        <filter val="1184.70"/>
+        <filter val="120.00"/>
+        <filter val="1239.76"/>
+        <filter val="128.33"/>
+        <filter val="1308.00"/>
+        <filter val="13416.83"/>
+        <filter val="135.00"/>
+        <filter val="13931.50"/>
+        <filter val="150.00"/>
+        <filter val="16067.83"/>
+        <filter val="163.33"/>
+        <filter val="165.00"/>
+        <filter val="166.17"/>
+        <filter val="171.43"/>
+        <filter val="173.09"/>
+        <filter val="181.75"/>
+        <filter val="187.50"/>
+        <filter val="1881.87"/>
+        <filter val="206.67"/>
+        <filter val="2062.25"/>
+        <filter val="21.43"/>
+        <filter val="2226.00"/>
+        <filter val="233.85"/>
+        <filter val="2331.67"/>
+        <filter val="235.71"/>
+        <filter val="2422.22"/>
+        <filter val="250.00"/>
+        <filter val="257.14"/>
+        <filter val="281.25"/>
+        <filter val="2875.10"/>
+        <filter val="293.33"/>
+        <filter val="294.03"/>
+        <filter val="2983.00"/>
+        <filter val="2997.93"/>
+        <filter val="30.00"/>
+        <filter val="30.30"/>
+        <filter val="3069.83"/>
+        <filter val="312.50"/>
+        <filter val="32.70"/>
+        <filter val="321.60"/>
+        <filter val="3348.00"/>
+        <filter val="3382.40"/>
+        <filter val="342.86"/>
+        <filter val="3501.00"/>
+        <filter val="3522.30"/>
+        <filter val="37.28"/>
+        <filter val="3707.31"/>
+        <filter val="374.97"/>
+        <filter val="38.65"/>
+        <filter val="3837.58"/>
+        <filter val="393.33"/>
+        <filter val="4220.94"/>
+        <filter val="4256.17"/>
+        <filter val="428.57"/>
+        <filter val="431.79"/>
+        <filter val="4601.33"/>
+        <filter val="4683.77"/>
+        <filter val="472.28"/>
+        <filter val="4803.27"/>
+        <filter val="483.50"/>
+        <filter val="500.00"/>
+        <filter val="5152.37"/>
+        <filter val="518.83"/>
+        <filter val="535.00"/>
+        <filter val="5396.27"/>
+        <filter val="55.94"/>
+        <filter val="578.57"/>
+        <filter val="579.83"/>
+        <filter val="60.80"/>
+        <filter val="601.80"/>
+        <filter val="614.61"/>
+        <filter val="637.67"/>
+        <filter val="6435.00"/>
+        <filter val="6902.60"/>
+        <filter val="692.86"/>
+        <filter val="743.00"/>
+        <filter val="77.95"/>
+        <filter val="78.93"/>
+        <filter val="786.80"/>
+        <filter val="792.86"/>
+        <filter val="799.33"/>
+        <filter val="80.07"/>
+        <filter val="803.33"/>
+        <filter val="8453.60"/>
+        <filter val="847.78"/>
+        <filter val="854.30"/>
+        <filter val="88.48"/>
+        <filter val="883.33"/>
+        <filter val="925.25"/>
+        <filter val="959.00"/>
+        <filter val="964.89"/>
+        <filter val="970.49"/>
+        <filter val="9783.83"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9687,19 +10238,19 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>254</v>
       </c>
@@ -9725,7 +10276,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>283</v>
       </c>
@@ -9751,7 +10302,7 @@
         <v>259.41666666666669</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>259</v>
       </c>
@@ -9777,7 +10328,7 @@
         <v>293.33333333333331</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>290</v>
       </c>
@@ -9803,7 +10354,7 @@
         <v>614.61249999999995</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>294</v>
       </c>
@@ -9829,7 +10380,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>297</v>
       </c>
@@ -9855,7 +10406,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>301</v>
       </c>
@@ -9881,7 +10432,7 @@
         <v>371.5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>305</v>
       </c>
@@ -9907,7 +10458,7 @@
         <v>483.5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>258</v>
       </c>
@@ -9933,7 +10484,7 @@
         <v>970.48749999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>312</v>
       </c>
@@ -9959,7 +10510,7 @@
         <v>925.25</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>316</v>
       </c>
@@ -9985,7 +10536,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>320</v>
       </c>
@@ -10007,7 +10558,7 @@
         <v>339.44444444444446</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>323</v>
       </c>
@@ -10029,7 +10580,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>326</v>
       </c>
@@ -10051,7 +10602,7 @@
         <v>1239.7625</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>329</v>
       </c>
@@ -10073,7 +10624,7 @@
         <v>592.35</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>332</v>
       </c>
@@ -10095,7 +10646,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>335</v>
       </c>
@@ -10117,7 +10668,7 @@
         <v>401.66666666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>338</v>
       </c>
@@ -10135,7 +10686,7 @@
         <v>579.83333333333337</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>340</v>
       </c>
@@ -10153,7 +10704,7 @@
         <v>1117.2249999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>342</v>
       </c>
@@ -10171,7 +10722,7 @@
         <v>601.79999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>344</v>
       </c>
@@ -10189,7 +10740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>346</v>
       </c>
@@ -10207,7 +10758,7 @@
         <v>212.55555555555554</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>348</v>
       </c>
@@ -10225,7 +10776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>350</v>
       </c>
@@ -10243,7 +10794,7 @@
         <v>854.3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>352</v>
       </c>
@@ -10261,7 +10812,7 @@
         <v>393.4</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>354</v>
       </c>
@@ -10279,7 +10830,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>356</v>
       </c>
@@ -10297,7 +10848,7 @@
         <v>70.488805970149258</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>357</v>
       </c>
@@ -10315,7 +10866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>262</v>
       </c>
@@ -10333,7 +10884,7 @@
         <v>105.35757575757576</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>263</v>
       </c>
@@ -10351,7 +10902,7 @@
         <v>43.402985074626869</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>264</v>
       </c>
@@ -10369,7 +10920,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>265</v>
       </c>
@@ -10387,7 +10938,7 @@
         <v>230.95238095238096</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>266</v>
       </c>
@@ -10405,7 +10956,7 @@
         <v>264.28571428571428</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>267</v>
       </c>
@@ -10423,7 +10974,7 @@
         <v>289.28571428571428</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>268</v>
       </c>
@@ -10441,7 +10992,7 @@
         <v>214.28571428571428</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>269</v>
       </c>
@@ -10459,7 +11010,7 @@
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>270</v>
       </c>
@@ -10477,7 +11028,7 @@
         <v>171.42857142857142</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>271</v>
       </c>
@@ -10495,7 +11046,7 @@
         <v>235.71428571428572</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -10509,7 +11060,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
@@ -10523,8 +11074,8 @@
         <v>128.57142857142858</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="59" t="s">
         <v>362</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -10535,8 +11086,8 @@
         <v>712.28561194884719</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="60"/>
       <c r="B42" s="18" t="s">
         <v>364</v>
       </c>
@@ -10545,8 +11096,8 @@
         <v>1259.743611111111</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="60"/>
       <c r="B43" s="20" t="s">
         <v>256</v>
       </c>
@@ -10555,8 +11106,8 @@
         <v>186.83978174603175</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
       <c r="B44" s="21" t="s">
         <v>257</v>
       </c>
